--- a/Presupuesto de Proyecto.xlsx
+++ b/Presupuesto de Proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinac\Documents\Daniel Chaves\FinAIcer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF1E30C2-2CB4-41A3-B910-1153FB2F0E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ACFDF4-8D52-4F75-BA2A-B86FB6A2300E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLANK - Simple Project Budget" sheetId="6" r:id="rId1"/>
@@ -38,6 +38,9 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -69,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="85">
   <si>
     <t>SUBTOTAL</t>
   </si>
@@ -469,7 +472,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,6 +608,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF806000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,7 +890,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1260,6 +1269,12 @@
     <xf numFmtId="167" fontId="17" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="23" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1281,13 +1296,19 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="23" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="170" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="19" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1510,7 +1531,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Risk Assessment &amp; Control"/>
@@ -1523,7 +1544,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Maintenance Work Order"/>
@@ -1867,8 +1888,8 @@
   </sheetPr>
   <dimension ref="A1:AN414"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1948,25 +1969,25 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="44"/>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125" t="s">
+      <c r="I2" s="127"/>
+      <c r="J2" s="127"/>
+      <c r="K2" s="127" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="129" t="s">
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="131" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="130"/>
-      <c r="P2" s="126" t="s">
+      <c r="O2" s="132"/>
+      <c r="P2" s="128" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="128"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="130"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -2200,7 +2221,7 @@
         <v>45877</v>
       </c>
       <c r="F6" s="67">
-        <v>45877</v>
+        <v>45878</v>
       </c>
       <c r="G6" s="67">
         <v>45878</v>
@@ -2223,11 +2244,11 @@
       </c>
       <c r="N6" s="34"/>
       <c r="O6" s="55"/>
-      <c r="P6" s="131">
+      <c r="P6" s="124">
         <v>300000</v>
       </c>
       <c r="Q6" s="81">
-        <f t="shared" ref="P6:Q53" si="3">J6+M6+O6+N6</f>
+        <f t="shared" ref="Q6:Q53" si="3">J6+M6+O6+N6</f>
         <v>300000</v>
       </c>
       <c r="R6" s="56">
@@ -2293,7 +2314,7 @@
       </c>
       <c r="N7" s="34"/>
       <c r="O7" s="55"/>
-      <c r="P7" s="131">
+      <c r="P7" s="124">
         <v>250000</v>
       </c>
       <c r="Q7" s="81">
@@ -2340,7 +2361,7 @@
         <v>45880</v>
       </c>
       <c r="F8" s="68">
-        <v>45892</v>
+        <v>45894</v>
       </c>
       <c r="G8" s="68">
         <v>45894</v>
@@ -2367,7 +2388,7 @@
       </c>
       <c r="N8" s="34"/>
       <c r="O8" s="55"/>
-      <c r="P8" s="131">
+      <c r="P8" s="124">
         <v>400000</v>
       </c>
       <c r="Q8" s="81">
@@ -2401,20 +2422,20 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
     </row>
-    <row r="9" spans="1:40" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="59" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E9" s="68">
         <v>45884</v>
       </c>
       <c r="F9" s="68">
-        <v>45895</v>
+        <v>45902</v>
       </c>
       <c r="G9" s="68">
         <v>45902</v>
@@ -2437,7 +2458,7 @@
       </c>
       <c r="N9" s="34"/>
       <c r="O9" s="55"/>
-      <c r="P9" s="131">
+      <c r="P9" s="124">
         <v>400000</v>
       </c>
       <c r="Q9" s="81">
@@ -2483,7 +2504,7 @@
         <v>45889</v>
       </c>
       <c r="F10" s="68">
-        <v>45889</v>
+        <v>45910</v>
       </c>
       <c r="G10" s="68">
         <v>45910</v>
@@ -2506,7 +2527,7 @@
       </c>
       <c r="N10" s="34"/>
       <c r="O10" s="55"/>
-      <c r="P10" s="131">
+      <c r="P10" s="124">
         <v>300000</v>
       </c>
       <c r="Q10" s="81">
@@ -2546,12 +2567,18 @@
         <v>45</v>
       </c>
       <c r="C11" s="60"/>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="99">
         <v>45885</v>
       </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
+      <c r="F11" s="99">
+        <v>45918</v>
+      </c>
+      <c r="G11" s="99">
+        <v>45918</v>
+      </c>
       <c r="H11" s="91">
         <f>SUM(H12:H14)+H15+H18</f>
         <v>160</v>
@@ -2626,7 +2653,7 @@
         <v>45891</v>
       </c>
       <c r="F12" s="68">
-        <v>45906</v>
+        <v>45911</v>
       </c>
       <c r="G12" s="68">
         <v>45911</v>
@@ -2649,7 +2676,7 @@
       </c>
       <c r="N12" s="34"/>
       <c r="O12" s="55"/>
-      <c r="P12" s="131">
+      <c r="P12" s="124">
         <v>750000</v>
       </c>
       <c r="Q12" s="81">
@@ -2690,7 +2717,7 @@
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="68">
         <v>45893</v>
@@ -2698,7 +2725,9 @@
       <c r="F13" s="68">
         <v>45907</v>
       </c>
-      <c r="G13" s="68"/>
+      <c r="G13" s="68">
+        <v>45907</v>
+      </c>
       <c r="H13" s="71">
         <v>20</v>
       </c>
@@ -2717,7 +2746,7 @@
       </c>
       <c r="N13" s="34"/>
       <c r="O13" s="55"/>
-      <c r="P13" s="131">
+      <c r="P13" s="124">
         <v>500000</v>
       </c>
       <c r="Q13" s="81">
@@ -2751,22 +2780,24 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="59" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="68">
         <v>45893</v>
       </c>
-      <c r="F14" s="69">
-        <v>45908</v>
-      </c>
-      <c r="G14" s="68"/>
+      <c r="F14" s="68">
+        <v>45912</v>
+      </c>
+      <c r="G14" s="68">
+        <v>45912</v>
+      </c>
       <c r="H14" s="71">
         <v>40</v>
       </c>
@@ -2785,7 +2816,7 @@
       </c>
       <c r="N14" s="34"/>
       <c r="O14" s="55"/>
-      <c r="P14" s="131">
+      <c r="P14" s="124">
         <v>880000</v>
       </c>
       <c r="Q14" s="81">
@@ -2825,14 +2856,18 @@
         <v>48</v>
       </c>
       <c r="C15" s="28"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E15" s="69">
         <v>45908</v>
       </c>
-      <c r="F15" s="133">
-        <v>45912</v>
-      </c>
-      <c r="G15" s="69"/>
+      <c r="F15" s="69">
+        <v>45914</v>
+      </c>
+      <c r="G15" s="69">
+        <v>45914</v>
+      </c>
       <c r="H15" s="71">
         <f>SUM(H16:H17)</f>
         <v>30</v>
@@ -2857,7 +2892,7 @@
       </c>
       <c r="N15" s="34"/>
       <c r="O15" s="55"/>
-      <c r="P15" s="131">
+      <c r="P15" s="124">
         <v>1900000</v>
       </c>
       <c r="Q15" s="81">
@@ -2898,15 +2933,17 @@
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" s="70">
         <v>45908</v>
       </c>
-      <c r="F16" s="133">
-        <v>45912</v>
-      </c>
-      <c r="G16" s="70"/>
+      <c r="F16" s="70">
+        <v>45913</v>
+      </c>
+      <c r="G16" s="70">
+        <v>45913</v>
+      </c>
       <c r="H16" s="71">
         <v>10</v>
       </c>
@@ -2925,7 +2962,7 @@
       </c>
       <c r="N16" s="34"/>
       <c r="O16" s="55"/>
-      <c r="P16" s="131">
+      <c r="P16" s="124">
         <v>300000</v>
       </c>
       <c r="Q16" s="81">
@@ -2966,13 +3003,17 @@
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="70">
-        <v>45909</v>
-      </c>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
+        <v>45914</v>
+      </c>
+      <c r="F17" s="70">
+        <v>45915</v>
+      </c>
+      <c r="G17" s="70">
+        <v>45915</v>
+      </c>
       <c r="H17" s="71">
         <v>20</v>
       </c>
@@ -2991,7 +3032,7 @@
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="55"/>
-      <c r="P17" s="131">
+      <c r="P17" s="124">
         <v>500000</v>
       </c>
       <c r="Q17" s="81">
@@ -3031,12 +3072,18 @@
         <v>51</v>
       </c>
       <c r="C18" s="28"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E18" s="69">
         <v>45910</v>
       </c>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
+      <c r="F18" s="69">
+        <v>45914</v>
+      </c>
+      <c r="G18" s="69">
+        <v>45914</v>
+      </c>
       <c r="H18" s="71">
         <f>SUM(H19:H20)</f>
         <v>40</v>
@@ -3061,7 +3108,7 @@
       </c>
       <c r="N18" s="34"/>
       <c r="O18" s="55"/>
-      <c r="P18" s="131">
+      <c r="P18" s="124">
         <v>2350000</v>
       </c>
       <c r="Q18" s="81">
@@ -3102,13 +3149,17 @@
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="70">
-        <v>45910</v>
-      </c>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+        <v>45914</v>
+      </c>
+      <c r="F19" s="70">
+        <v>45916</v>
+      </c>
+      <c r="G19" s="70">
+        <v>45916</v>
+      </c>
       <c r="H19" s="71">
         <v>20</v>
       </c>
@@ -3127,7 +3178,7 @@
       </c>
       <c r="N19" s="34"/>
       <c r="O19" s="55"/>
-      <c r="P19" s="131">
+      <c r="P19" s="124">
         <v>600000</v>
       </c>
       <c r="Q19" s="81">
@@ -3168,13 +3219,17 @@
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="70">
-        <v>45912</v>
-      </c>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
+        <v>45914</v>
+      </c>
+      <c r="F20" s="70">
+        <v>45917</v>
+      </c>
+      <c r="G20" s="70">
+        <v>45917</v>
+      </c>
       <c r="H20" s="71">
         <v>20</v>
       </c>
@@ -3193,7 +3248,7 @@
       </c>
       <c r="N20" s="34"/>
       <c r="O20" s="55"/>
-      <c r="P20" s="131">
+      <c r="P20" s="124">
         <v>500000</v>
       </c>
       <c r="Q20" s="81">
@@ -3233,12 +3288,18 @@
         <v>54</v>
       </c>
       <c r="C21" s="61"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E21" s="100">
-        <v>45913</v>
-      </c>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
+        <v>45914</v>
+      </c>
+      <c r="F21" s="100">
+        <v>45936</v>
+      </c>
+      <c r="G21" s="100">
+        <v>45936</v>
+      </c>
       <c r="H21" s="92">
         <f>SUM(H22:H24)+H25+H28</f>
         <v>180</v>
@@ -3307,13 +3368,17 @@
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E22" s="68">
-        <v>45913</v>
-      </c>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+        <v>45914</v>
+      </c>
+      <c r="F22" s="133">
+        <v>45919</v>
+      </c>
+      <c r="G22" s="133">
+        <v>45919</v>
+      </c>
       <c r="H22" s="71">
         <v>30</v>
       </c>
@@ -3332,7 +3397,7 @@
       </c>
       <c r="N22" s="34"/>
       <c r="O22" s="55"/>
-      <c r="P22" s="131">
+      <c r="P22" s="124">
         <v>900000</v>
       </c>
       <c r="Q22" s="81">
@@ -3373,13 +3438,17 @@
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E23" s="68">
         <v>45915</v>
       </c>
-      <c r="F23" s="68"/>
-      <c r="G23" s="68"/>
+      <c r="F23" s="133">
+        <v>45919</v>
+      </c>
+      <c r="G23" s="133">
+        <v>45919</v>
+      </c>
       <c r="H23" s="71">
         <v>20</v>
       </c>
@@ -3398,7 +3467,7 @@
       </c>
       <c r="N23" s="34"/>
       <c r="O23" s="55"/>
-      <c r="P23" s="131">
+      <c r="P23" s="124">
         <v>600000</v>
       </c>
       <c r="Q23" s="81">
@@ -3439,13 +3508,17 @@
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="68">
         <v>45917</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
+      <c r="F24" s="133">
+        <v>45929</v>
+      </c>
+      <c r="G24" s="133">
+        <v>45929</v>
+      </c>
       <c r="H24" s="71">
         <v>30</v>
       </c>
@@ -3468,7 +3541,7 @@
       </c>
       <c r="N24" s="34"/>
       <c r="O24" s="55"/>
-      <c r="P24" s="131">
+      <c r="P24" s="124">
         <v>850000</v>
       </c>
       <c r="Q24" s="81">
@@ -3508,12 +3581,18 @@
         <v>57</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E25" s="67">
         <v>45919</v>
       </c>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
+      <c r="F25" s="134">
+        <v>45929</v>
+      </c>
+      <c r="G25" s="134">
+        <v>45929</v>
+      </c>
       <c r="H25" s="71">
         <f>SUM(H26:H27)</f>
         <v>40</v>
@@ -3534,7 +3613,7 @@
       </c>
       <c r="N25" s="34"/>
       <c r="O25" s="55"/>
-      <c r="P25" s="131">
+      <c r="P25" s="124">
         <v>2400000</v>
       </c>
       <c r="Q25" s="81">
@@ -3575,13 +3654,17 @@
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E26" s="68">
         <v>45919</v>
       </c>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
+      <c r="F26" s="133">
+        <v>45922</v>
+      </c>
+      <c r="G26" s="133">
+        <v>45922</v>
+      </c>
       <c r="H26" s="71">
         <v>20</v>
       </c>
@@ -3600,7 +3683,7 @@
       </c>
       <c r="N26" s="34"/>
       <c r="O26" s="55"/>
-      <c r="P26" s="131">
+      <c r="P26" s="124">
         <v>600000</v>
       </c>
       <c r="Q26" s="81">
@@ -3641,13 +3724,17 @@
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E27" s="70">
         <v>45923</v>
       </c>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
+      <c r="F27" s="135">
+        <v>45928</v>
+      </c>
+      <c r="G27" s="135">
+        <v>45928</v>
+      </c>
       <c r="H27" s="71">
         <v>20</v>
       </c>
@@ -3666,7 +3753,7 @@
       </c>
       <c r="N27" s="34"/>
       <c r="O27" s="55"/>
-      <c r="P27" s="131">
+      <c r="P27" s="124">
         <v>600000</v>
       </c>
       <c r="Q27" s="81">
@@ -3706,12 +3793,18 @@
         <v>58</v>
       </c>
       <c r="C28" s="28"/>
-      <c r="D28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E28" s="69">
         <v>45925</v>
       </c>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
+      <c r="F28" s="136">
+        <v>45936</v>
+      </c>
+      <c r="G28" s="136">
+        <v>45936</v>
+      </c>
       <c r="H28" s="71">
         <f>SUM(H29:H30)</f>
         <v>60</v>
@@ -3736,7 +3829,7 @@
       </c>
       <c r="N28" s="34"/>
       <c r="O28" s="55"/>
-      <c r="P28" s="131">
+      <c r="P28" s="124">
         <v>3750000</v>
       </c>
       <c r="Q28" s="81">
@@ -3777,13 +3870,17 @@
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" s="70">
         <v>45925</v>
       </c>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
+      <c r="F29" s="135">
+        <v>45936</v>
+      </c>
+      <c r="G29" s="135">
+        <v>45936</v>
+      </c>
       <c r="H29" s="71">
         <v>30</v>
       </c>
@@ -3802,7 +3899,7 @@
       </c>
       <c r="N29" s="34"/>
       <c r="O29" s="55"/>
-      <c r="P29" s="131">
+      <c r="P29" s="124">
         <v>900000</v>
       </c>
       <c r="Q29" s="81">
@@ -3842,13 +3939,17 @@
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E30" s="70">
-        <v>45928</v>
-      </c>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
+        <v>45930</v>
+      </c>
+      <c r="F30" s="135">
+        <v>45936</v>
+      </c>
+      <c r="G30" s="135">
+        <v>45936</v>
+      </c>
       <c r="H30" s="71">
         <v>30</v>
       </c>
@@ -3867,7 +3968,7 @@
       </c>
       <c r="N30" s="34"/>
       <c r="O30" s="55"/>
-      <c r="P30" s="131">
+      <c r="P30" s="124">
         <v>900000</v>
       </c>
       <c r="Q30" s="81">
@@ -3885,12 +3986,18 @@
         <v>59</v>
       </c>
       <c r="C31" s="62"/>
-      <c r="D31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E31" s="101">
-        <v>45930</v>
-      </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
+        <v>45933</v>
+      </c>
+      <c r="F31" s="101">
+        <v>45942</v>
+      </c>
+      <c r="G31" s="101">
+        <v>45942</v>
+      </c>
       <c r="H31" s="93">
         <f>SUM(H32:H34)</f>
         <v>140</v>
@@ -3959,13 +4066,17 @@
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" s="68">
-        <v>45930</v>
-      </c>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
+        <v>45933</v>
+      </c>
+      <c r="F32" s="133">
+        <v>45938</v>
+      </c>
+      <c r="G32" s="133">
+        <v>45938</v>
+      </c>
       <c r="H32" s="71">
         <v>60</v>
       </c>
@@ -3984,7 +4095,7 @@
       </c>
       <c r="N32" s="34"/>
       <c r="O32" s="55"/>
-      <c r="P32" s="131">
+      <c r="P32" s="124">
         <v>1680000</v>
       </c>
       <c r="Q32" s="81">
@@ -4025,13 +4136,17 @@
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="68">
         <v>45933</v>
       </c>
-      <c r="F33" s="68"/>
-      <c r="G33" s="68"/>
+      <c r="F33" s="133">
+        <v>45940</v>
+      </c>
+      <c r="G33" s="133">
+        <v>45940</v>
+      </c>
       <c r="H33" s="71">
         <v>40</v>
       </c>
@@ -4050,7 +4165,7 @@
       </c>
       <c r="N33" s="34"/>
       <c r="O33" s="55"/>
-      <c r="P33" s="131">
+      <c r="P33" s="124">
         <v>1200000</v>
       </c>
       <c r="Q33" s="81">
@@ -4091,13 +4206,17 @@
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E34" s="68">
         <v>45935</v>
       </c>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
+      <c r="F34" s="133">
+        <v>45942</v>
+      </c>
+      <c r="G34" s="133">
+        <v>45942</v>
+      </c>
       <c r="H34" s="71">
         <v>40</v>
       </c>
@@ -4120,7 +4239,7 @@
       </c>
       <c r="N34" s="34"/>
       <c r="O34" s="55"/>
-      <c r="P34" s="131">
+      <c r="P34" s="124">
         <v>1270000</v>
       </c>
       <c r="Q34" s="81">
@@ -4160,12 +4279,18 @@
         <v>63</v>
       </c>
       <c r="C35" s="63"/>
-      <c r="D35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E35" s="102">
         <v>45937</v>
       </c>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
+      <c r="F35" s="102">
+        <v>45948</v>
+      </c>
+      <c r="G35" s="102">
+        <v>45948</v>
+      </c>
       <c r="H35" s="94">
         <f>SUM(H36:H37)</f>
         <v>100</v>
@@ -4234,13 +4359,17 @@
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36" s="68">
         <v>45937</v>
       </c>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
+      <c r="F36" s="133">
+        <v>45946</v>
+      </c>
+      <c r="G36" s="133">
+        <v>45946</v>
+      </c>
       <c r="H36" s="71">
         <v>50</v>
       </c>
@@ -4259,7 +4388,7 @@
       </c>
       <c r="N36" s="34"/>
       <c r="O36" s="55"/>
-      <c r="P36" s="131">
+      <c r="P36" s="124">
         <v>1250000</v>
       </c>
       <c r="Q36" s="81">
@@ -4300,13 +4429,17 @@
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" s="68">
         <v>45940</v>
       </c>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
+      <c r="F37" s="133">
+        <v>45948</v>
+      </c>
+      <c r="G37" s="133">
+        <v>45948</v>
+      </c>
       <c r="H37" s="71">
         <v>50</v>
       </c>
@@ -4325,7 +4458,7 @@
       </c>
       <c r="N37" s="34"/>
       <c r="O37" s="55"/>
-      <c r="P37" s="131">
+      <c r="P37" s="124">
         <v>1250000</v>
       </c>
       <c r="Q37" s="81">
@@ -4369,8 +4502,12 @@
       <c r="E38" s="103">
         <v>45942</v>
       </c>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
+      <c r="F38" s="103">
+        <v>45954</v>
+      </c>
+      <c r="G38" s="103">
+        <v>45954</v>
+      </c>
       <c r="H38" s="95">
         <f>SUM(H39:H41)</f>
         <v>80</v>
@@ -4438,13 +4575,17 @@
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E39" s="104">
         <v>45942</v>
       </c>
-      <c r="F39" s="104"/>
-      <c r="G39" s="104"/>
+      <c r="F39" s="133">
+        <v>45951</v>
+      </c>
+      <c r="G39" s="133">
+        <v>45951</v>
+      </c>
       <c r="H39" s="71">
         <v>30</v>
       </c>
@@ -4463,7 +4604,7 @@
       </c>
       <c r="N39" s="34"/>
       <c r="O39" s="55"/>
-      <c r="P39" s="131">
+      <c r="P39" s="124">
         <v>750000</v>
       </c>
       <c r="Q39" s="81">
@@ -4504,13 +4645,17 @@
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E40" s="68">
         <v>45945</v>
       </c>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
+      <c r="F40" s="133">
+        <v>45953</v>
+      </c>
+      <c r="G40" s="133">
+        <v>45953</v>
+      </c>
       <c r="H40" s="71">
         <v>30</v>
       </c>
@@ -4529,7 +4674,7 @@
       </c>
       <c r="N40" s="34"/>
       <c r="O40" s="55"/>
-      <c r="P40" s="131">
+      <c r="P40" s="124">
         <v>750000</v>
       </c>
       <c r="Q40" s="81">
@@ -4570,13 +4715,17 @@
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" s="68">
         <v>45947</v>
       </c>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
+      <c r="F41" s="133">
+        <v>45954</v>
+      </c>
+      <c r="G41" s="133">
+        <v>45954</v>
+      </c>
       <c r="H41" s="71">
         <v>20</v>
       </c>
@@ -4595,7 +4744,7 @@
       </c>
       <c r="N41" s="34"/>
       <c r="O41" s="55"/>
-      <c r="P41" s="131">
+      <c r="P41" s="124">
         <v>600000</v>
       </c>
       <c r="Q41" s="81">
@@ -4639,8 +4788,12 @@
       <c r="E42" s="105">
         <v>45949</v>
       </c>
-      <c r="F42" s="105"/>
-      <c r="G42" s="105"/>
+      <c r="F42" s="105">
+        <v>45960</v>
+      </c>
+      <c r="G42" s="105">
+        <v>45960</v>
+      </c>
       <c r="H42" s="96">
         <f>SUM(H43:H45)</f>
         <v>80</v>
@@ -4714,8 +4867,12 @@
       <c r="E43" s="68">
         <v>45949</v>
       </c>
-      <c r="F43" s="68"/>
-      <c r="G43" s="68"/>
+      <c r="F43" s="133">
+        <v>45957</v>
+      </c>
+      <c r="G43" s="133">
+        <v>45957</v>
+      </c>
       <c r="H43" s="71">
         <v>30</v>
       </c>
@@ -4734,7 +4891,7 @@
       </c>
       <c r="N43" s="34"/>
       <c r="O43" s="55"/>
-      <c r="P43" s="131">
+      <c r="P43" s="124">
         <v>750000</v>
       </c>
       <c r="Q43" s="81">
@@ -4780,8 +4937,12 @@
       <c r="E44" s="68">
         <v>45952</v>
       </c>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
+      <c r="F44" s="133">
+        <v>45959</v>
+      </c>
+      <c r="G44" s="133">
+        <v>45959</v>
+      </c>
       <c r="H44" s="71">
         <v>30</v>
       </c>
@@ -4800,7 +4961,7 @@
       </c>
       <c r="N44" s="34"/>
       <c r="O44" s="55"/>
-      <c r="P44" s="131">
+      <c r="P44" s="124">
         <v>750000</v>
       </c>
       <c r="Q44" s="81">
@@ -4846,8 +5007,12 @@
       <c r="E45" s="68">
         <v>45954</v>
       </c>
-      <c r="F45" s="68"/>
-      <c r="G45" s="68"/>
+      <c r="F45" s="133">
+        <v>45960</v>
+      </c>
+      <c r="G45" s="133">
+        <v>45960</v>
+      </c>
       <c r="H45" s="71">
         <v>20</v>
       </c>
@@ -4866,7 +5031,7 @@
       </c>
       <c r="N45" s="34"/>
       <c r="O45" s="55"/>
-      <c r="P45" s="131">
+      <c r="P45" s="124">
         <v>500000</v>
       </c>
       <c r="Q45" s="81">
@@ -4910,8 +5075,12 @@
       <c r="E46" s="106">
         <v>45955</v>
       </c>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
+      <c r="F46" s="106">
+        <v>45964</v>
+      </c>
+      <c r="G46" s="106">
+        <v>45964</v>
+      </c>
       <c r="H46" s="97">
         <f>SUM(H47:H49)</f>
         <v>50</v>
@@ -4985,8 +5154,12 @@
       <c r="E47" s="68">
         <v>45955</v>
       </c>
-      <c r="F47" s="68"/>
-      <c r="G47" s="68"/>
+      <c r="F47" s="133">
+        <v>45961</v>
+      </c>
+      <c r="G47" s="133">
+        <v>45961</v>
+      </c>
       <c r="H47" s="71">
         <v>20</v>
       </c>
@@ -5005,7 +5178,7 @@
       </c>
       <c r="N47" s="34"/>
       <c r="O47" s="55"/>
-      <c r="P47" s="131">
+      <c r="P47" s="124">
         <v>500000</v>
       </c>
       <c r="Q47" s="81">
@@ -5051,8 +5224,12 @@
       <c r="E48" s="68">
         <v>45957</v>
       </c>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
+      <c r="F48" s="133">
+        <v>45963</v>
+      </c>
+      <c r="G48" s="133">
+        <v>45963</v>
+      </c>
       <c r="H48" s="71">
         <v>20</v>
       </c>
@@ -5075,7 +5252,7 @@
       </c>
       <c r="N48" s="34"/>
       <c r="O48" s="55"/>
-      <c r="P48" s="131">
+      <c r="P48" s="124">
         <v>650000</v>
       </c>
       <c r="Q48" s="81">
@@ -5121,8 +5298,12 @@
       <c r="E49" s="68">
         <v>45959</v>
       </c>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
+      <c r="F49" s="133">
+        <v>45964</v>
+      </c>
+      <c r="G49" s="133">
+        <v>45964</v>
+      </c>
       <c r="H49" s="71">
         <v>10</v>
       </c>
@@ -5141,7 +5322,7 @@
       </c>
       <c r="N49" s="34"/>
       <c r="O49" s="55"/>
-      <c r="P49" s="131">
+      <c r="P49" s="124">
         <v>250000</v>
       </c>
       <c r="Q49" s="81">
@@ -5185,8 +5366,12 @@
       <c r="E50" s="74">
         <v>45961</v>
       </c>
-      <c r="F50" s="74"/>
-      <c r="G50" s="74"/>
+      <c r="F50" s="137">
+        <v>45967</v>
+      </c>
+      <c r="G50" s="137">
+        <v>45967</v>
+      </c>
       <c r="H50" s="75">
         <f>SUM(H51:H53)</f>
         <v>30</v>
@@ -5214,7 +5399,7 @@
       <c r="O50" s="79">
         <v>100000</v>
       </c>
-      <c r="P50" s="132">
+      <c r="P50" s="125">
         <v>2650000</v>
       </c>
       <c r="Q50" s="81">
@@ -5260,8 +5445,12 @@
       <c r="E51" s="68">
         <v>45961</v>
       </c>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
+      <c r="F51" s="133">
+        <v>45965</v>
+      </c>
+      <c r="G51" s="133">
+        <v>45965</v>
+      </c>
       <c r="H51" s="71">
         <v>10</v>
       </c>
@@ -5280,7 +5469,7 @@
       </c>
       <c r="N51" s="34"/>
       <c r="O51" s="55"/>
-      <c r="P51" s="131">
+      <c r="P51" s="124">
         <v>250000</v>
       </c>
       <c r="Q51" s="81">
@@ -5326,8 +5515,12 @@
       <c r="E52" s="68">
         <v>45963</v>
       </c>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
+      <c r="F52" s="133">
+        <v>45966</v>
+      </c>
+      <c r="G52" s="133">
+        <v>45966</v>
+      </c>
       <c r="H52" s="71">
         <v>10</v>
       </c>
@@ -5350,7 +5543,7 @@
       </c>
       <c r="N52" s="34"/>
       <c r="O52" s="55"/>
-      <c r="P52" s="131">
+      <c r="P52" s="124">
         <v>350000</v>
       </c>
       <c r="Q52" s="81">
@@ -5396,8 +5589,12 @@
       <c r="E53" s="68">
         <v>45965</v>
       </c>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
+      <c r="F53" s="133">
+        <v>45967</v>
+      </c>
+      <c r="G53" s="133">
+        <v>45967</v>
+      </c>
       <c r="H53" s="71">
         <v>10</v>
       </c>
@@ -5416,7 +5613,7 @@
       </c>
       <c r="N53" s="34"/>
       <c r="O53" s="55"/>
-      <c r="P53" s="131">
+      <c r="P53" s="124">
         <v>250000</v>
       </c>
       <c r="Q53" s="81">

--- a/Presupuesto de Proyecto.xlsx
+++ b/Presupuesto de Proyecto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salas\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ACFDF4-8D52-4F75-BA2A-B86FB6A2300E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016B9FA4-1868-4F36-9E36-EC78C5291EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -890,7 +890,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -999,10 +999,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1888,8 +1884,8 @@
   </sheetPr>
   <dimension ref="A1:AN414"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R52" sqref="R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1908,7 +1904,7 @@
     <col min="12" max="13" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.25" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.25" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.125" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="3.125" style="2" customWidth="1"/>
@@ -1968,26 +1964,26 @@
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="126" t="s">
+      <c r="G2" s="43"/>
+      <c r="H2" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
-      <c r="K2" s="127" t="s">
+      <c r="I2" s="126"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="131" t="s">
+      <c r="L2" s="126"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="130" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="132"/>
-      <c r="P2" s="128" t="s">
+      <c r="O2" s="131"/>
+      <c r="P2" s="127" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="130"/>
+      <c r="Q2" s="128"/>
+      <c r="R2" s="129"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -2028,10 +2024,10 @@
       <c r="F3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="36" t="s">
         <v>29</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -2055,13 +2051,13 @@
       <c r="O3" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="38" t="s">
         <v>39</v>
       </c>
       <c r="S3" s="4"/>
@@ -2094,20 +2090,20 @@
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
@@ -2133,55 +2129,56 @@
     </row>
     <row r="5" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="98">
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="97">
         <v>45877</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="97">
         <v>45877</v>
       </c>
-      <c r="G5" s="98">
+      <c r="G5" s="97">
         <v>45910</v>
       </c>
-      <c r="H5" s="90">
+      <c r="H5" s="89">
         <f>SUM(H6:H10)</f>
         <v>50</v>
       </c>
-      <c r="I5" s="81">
+      <c r="I5" s="80">
         <f>SUM(I6:I10)</f>
         <v>137000</v>
       </c>
-      <c r="J5" s="81">
+      <c r="J5" s="80">
         <f>H5*I5</f>
         <v>6850000</v>
       </c>
-      <c r="K5" s="123">
+      <c r="K5" s="122">
         <f>SUM(K6:K10)</f>
         <v>1</v>
       </c>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81">
+      <c r="L5" s="80"/>
+      <c r="M5" s="80">
         <f>SUM(M6:M10)</f>
         <v>150000</v>
       </c>
-      <c r="N5" s="81">
+      <c r="N5" s="80">
         <v>250000</v>
       </c>
-      <c r="O5" s="81">
+      <c r="O5" s="80">
         <v>100000</v>
       </c>
-      <c r="P5" s="81">
+      <c r="P5" s="80">
+        <f>J5+M5+N5+O5</f>
         <v>7350000</v>
       </c>
-      <c r="Q5" s="81">
+      <c r="Q5" s="80">
         <f>J5+M5+O5+N5</f>
         <v>7350000</v>
       </c>
-      <c r="R5" s="115">
+      <c r="R5" s="114">
         <f t="shared" ref="R5:R13" si="0">Q5-P5</f>
         <v>0</v>
       </c>
@@ -2210,48 +2207,57 @@
     </row>
     <row r="6" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="57" t="s">
         <v>82</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="66">
         <v>45877</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="66">
         <v>45878</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="66">
         <v>45878</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="70">
         <v>10</v>
       </c>
-      <c r="I6" s="89">
+      <c r="I6" s="88">
         <v>30000</v>
       </c>
-      <c r="J6" s="81">
+      <c r="J6" s="80">
         <f t="shared" ref="J6:J53" si="1">H6*I6</f>
         <v>300000</v>
       </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="54">
+      <c r="K6" s="33">
+        <v>0</v>
+      </c>
+      <c r="L6" s="88">
+        <v>0</v>
+      </c>
+      <c r="M6" s="53">
         <f t="shared" ref="M6:M13" si="2">K6*L6</f>
         <v>0</v>
       </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="124">
-        <v>300000</v>
-      </c>
-      <c r="Q6" s="81">
+      <c r="N6" s="34">
+        <v>0</v>
+      </c>
+      <c r="O6" s="54">
+        <v>50000</v>
+      </c>
+      <c r="P6" s="123">
+        <f>J6+L6+M6+N6+O6</f>
+        <v>350000</v>
+      </c>
+      <c r="Q6" s="80">
         <f t="shared" ref="Q6:Q53" si="3">J6+M6+O6+N6</f>
-        <v>300000</v>
-      </c>
-      <c r="R6" s="56">
+        <v>350000</v>
+      </c>
+      <c r="R6" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2280,48 +2286,49 @@
     </row>
     <row r="7" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="58" t="s">
         <v>42</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="67">
         <v>45879</v>
       </c>
-      <c r="F7" s="68">
+      <c r="F7" s="67">
         <v>45884</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="67">
         <v>45884</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="70">
         <v>10</v>
       </c>
-      <c r="I7" s="89">
+      <c r="I7" s="88">
         <v>25000</v>
       </c>
-      <c r="J7" s="81">
+      <c r="J7" s="80">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="K7" s="33"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="54">
+      <c r="L7" s="88"/>
+      <c r="M7" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="34"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="124">
+      <c r="O7" s="54"/>
+      <c r="P7" s="123">
+        <f t="shared" ref="P7:P10" si="4">J7+L7+M7+N7+O7</f>
         <v>250000</v>
       </c>
-      <c r="Q7" s="81">
+      <c r="Q7" s="80">
         <f t="shared" si="3"/>
         <v>250000</v>
       </c>
-      <c r="R7" s="56">
+      <c r="R7" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2350,54 +2357,57 @@
     </row>
     <row r="8" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="58" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="67">
         <v>45880</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="67">
         <v>45894</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="67">
         <v>45894</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="70">
         <v>10</v>
       </c>
-      <c r="I8" s="89">
+      <c r="I8" s="88">
         <v>25000</v>
       </c>
-      <c r="J8" s="81">
+      <c r="J8" s="80">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="K8" s="33">
         <v>1</v>
       </c>
-      <c r="L8" s="89">
+      <c r="L8" s="88">
         <v>150000</v>
       </c>
-      <c r="M8" s="54">
+      <c r="M8" s="53">
         <f>K8*L8</f>
         <v>150000</v>
       </c>
-      <c r="N8" s="34"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="124">
-        <v>400000</v>
-      </c>
-      <c r="Q8" s="81">
+      <c r="N8" s="34">
+        <v>150000</v>
+      </c>
+      <c r="O8" s="54"/>
+      <c r="P8" s="123">
+        <f t="shared" si="4"/>
+        <v>700000</v>
+      </c>
+      <c r="Q8" s="80">
         <f t="shared" si="3"/>
-        <v>400000</v>
-      </c>
-      <c r="R8" s="56">
+        <v>550000</v>
+      </c>
+      <c r="R8" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-150000</v>
       </c>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -2424,49 +2434,52 @@
     </row>
     <row r="9" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="58" t="s">
         <v>83</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="68">
+      <c r="E9" s="67">
         <v>45884</v>
       </c>
-      <c r="F9" s="68">
+      <c r="F9" s="67">
         <v>45902</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="67">
         <v>45902</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="70">
         <v>10</v>
       </c>
-      <c r="I9" s="89">
+      <c r="I9" s="88">
         <v>27000</v>
       </c>
-      <c r="J9" s="81">
-        <f t="shared" ref="J9" si="4">H9*I9</f>
+      <c r="J9" s="80">
+        <f t="shared" ref="J9" si="5">H9*I9</f>
         <v>270000</v>
       </c>
       <c r="K9" s="33"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="54">
+      <c r="L9" s="88"/>
+      <c r="M9" s="53">
         <f>K9*L9</f>
         <v>0</v>
       </c>
       <c r="N9" s="34"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="124">
+      <c r="O9" s="54">
+        <v>50000</v>
+      </c>
+      <c r="P9" s="123">
+        <f>J9+L9+M9+N9+O9</f>
+        <v>320000</v>
+      </c>
+      <c r="Q9" s="80">
         <v>400000</v>
       </c>
-      <c r="Q9" s="81">
-        <v>400000</v>
-      </c>
-      <c r="R9" s="56">
+      <c r="R9" s="55">
         <f>Q9-P9</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -2493,48 +2506,51 @@
     </row>
     <row r="10" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="58" t="s">
         <v>44</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="68">
+      <c r="E10" s="67">
         <v>45889</v>
       </c>
-      <c r="F10" s="68">
+      <c r="F10" s="67">
         <v>45910</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="67">
         <v>45910</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="70">
         <v>10</v>
       </c>
-      <c r="I10" s="89">
+      <c r="I10" s="88">
         <v>30000</v>
       </c>
-      <c r="J10" s="81">
+      <c r="J10" s="80">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
       <c r="K10" s="33"/>
-      <c r="L10" s="89"/>
-      <c r="M10" s="54">
+      <c r="L10" s="88"/>
+      <c r="M10" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="124">
-        <v>300000</v>
-      </c>
-      <c r="Q10" s="81">
+      <c r="N10" s="34">
+        <v>100000</v>
+      </c>
+      <c r="O10" s="54"/>
+      <c r="P10" s="123">
+        <f t="shared" si="4"/>
+        <v>400000</v>
+      </c>
+      <c r="Q10" s="80">
         <f t="shared" si="3"/>
-        <v>300000</v>
-      </c>
-      <c r="R10" s="56">
+        <v>400000</v>
+      </c>
+      <c r="R10" s="55">
         <f>Q10-P10</f>
         <v>0</v>
       </c>
@@ -2563,57 +2579,58 @@
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="99">
+      <c r="E11" s="98">
         <v>45885</v>
       </c>
-      <c r="F11" s="99">
+      <c r="F11" s="98">
         <v>45918</v>
       </c>
-      <c r="G11" s="99">
+      <c r="G11" s="98">
         <v>45918</v>
       </c>
-      <c r="H11" s="91">
+      <c r="H11" s="90">
         <f>SUM(H12:H14)+H15+H18</f>
         <v>160</v>
       </c>
-      <c r="I11" s="82" cm="1">
+      <c r="I11" s="81" cm="1">
         <f t="array" ref="I11">SUM(I18+I15+I12:I14)</f>
         <v>402000</v>
       </c>
-      <c r="J11" s="81">
+      <c r="J11" s="80">
         <f>H11*I11</f>
         <v>64320000</v>
       </c>
-      <c r="K11" s="113">
+      <c r="K11" s="112">
         <f>SUM(K12:K20)</f>
         <v>2</v>
       </c>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82">
+      <c r="L11" s="81"/>
+      <c r="M11" s="81">
         <f>SUM(M12:M20)</f>
         <v>400000</v>
       </c>
-      <c r="N11" s="82">
+      <c r="N11" s="81">
         <v>800000</v>
       </c>
-      <c r="O11" s="82">
+      <c r="O11" s="81">
         <v>150000</v>
       </c>
-      <c r="P11" s="82">
+      <c r="P11" s="81">
+        <f>J11+M11+N11+O11</f>
         <v>65670000</v>
       </c>
-      <c r="Q11" s="81">
+      <c r="Q11" s="80">
         <f t="shared" si="3"/>
         <v>65670000</v>
       </c>
-      <c r="R11" s="116">
+      <c r="R11" s="115">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2642,48 +2659,53 @@
     </row>
     <row r="12" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="58" t="s">
         <v>46</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="68">
+      <c r="E12" s="67">
         <v>45891</v>
       </c>
-      <c r="F12" s="68">
+      <c r="F12" s="67">
         <v>45911</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="67">
         <v>45911</v>
       </c>
-      <c r="H12" s="71">
+      <c r="H12" s="70">
         <v>30</v>
       </c>
-      <c r="I12" s="89">
+      <c r="I12" s="88">
         <v>25000</v>
       </c>
-      <c r="J12" s="81">
+      <c r="J12" s="80">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="K12" s="33"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="54">
+      <c r="L12" s="88"/>
+      <c r="M12" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N12" s="34"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="124">
-        <v>750000</v>
-      </c>
-      <c r="Q12" s="81">
+      <c r="N12" s="34">
+        <v>200000</v>
+      </c>
+      <c r="O12" s="54">
+        <v>50000</v>
+      </c>
+      <c r="P12" s="123">
+        <f>SUM(L12:O12,J12)</f>
+        <v>1000000</v>
+      </c>
+      <c r="Q12" s="80">
         <f t="shared" si="3"/>
-        <v>750000</v>
-      </c>
-      <c r="R12" s="56">
+        <v>1000000</v>
+      </c>
+      <c r="R12" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2712,48 +2734,51 @@
     </row>
     <row r="13" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="58" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="68">
+      <c r="E13" s="67">
         <v>45893</v>
       </c>
-      <c r="F13" s="68">
+      <c r="F13" s="67">
         <v>45907</v>
       </c>
-      <c r="G13" s="68">
+      <c r="G13" s="67">
         <v>45907</v>
       </c>
-      <c r="H13" s="71">
+      <c r="H13" s="70">
         <v>20</v>
       </c>
-      <c r="I13" s="89">
+      <c r="I13" s="88">
         <v>25000</v>
       </c>
-      <c r="J13" s="81">
+      <c r="J13" s="80">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K13" s="33"/>
-      <c r="L13" s="89"/>
-      <c r="M13" s="54">
+      <c r="L13" s="88"/>
+      <c r="M13" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N13" s="34"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="124">
-        <v>500000</v>
-      </c>
-      <c r="Q13" s="81">
+      <c r="N13" s="34">
+        <v>100000</v>
+      </c>
+      <c r="O13" s="54"/>
+      <c r="P13" s="123">
+        <f t="shared" ref="P13:P20" si="6">SUM(L13:O13,J13)</f>
+        <v>600000</v>
+      </c>
+      <c r="Q13" s="80">
         <f t="shared" si="3"/>
-        <v>500000</v>
-      </c>
-      <c r="R13" s="56">
+        <v>600000</v>
+      </c>
+      <c r="R13" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2782,49 +2807,54 @@
     </row>
     <row r="14" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="58" t="s">
         <v>84</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="68">
+      <c r="E14" s="67">
         <v>45893</v>
       </c>
-      <c r="F14" s="68">
+      <c r="F14" s="67">
         <v>45912</v>
       </c>
-      <c r="G14" s="68">
+      <c r="G14" s="67">
         <v>45912</v>
       </c>
-      <c r="H14" s="71">
+      <c r="H14" s="70">
         <v>40</v>
       </c>
-      <c r="I14" s="89">
+      <c r="I14" s="88">
         <v>22000</v>
       </c>
-      <c r="J14" s="81">
+      <c r="J14" s="80">
         <f t="shared" si="1"/>
         <v>880000</v>
       </c>
       <c r="K14" s="33"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="54">
+      <c r="L14" s="88"/>
+      <c r="M14" s="53">
         <f>K14*L14</f>
         <v>0</v>
       </c>
-      <c r="N14" s="34"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="124">
-        <v>880000</v>
-      </c>
-      <c r="Q14" s="81">
+      <c r="N14" s="34">
+        <v>150000</v>
+      </c>
+      <c r="O14" s="54">
+        <v>100000</v>
+      </c>
+      <c r="P14" s="123">
+        <f t="shared" si="6"/>
+        <v>1130000</v>
+      </c>
+      <c r="Q14" s="80">
         <f t="shared" si="3"/>
-        <v>880000</v>
-      </c>
-      <c r="R14" s="56">
-        <f t="shared" ref="R14:R27" si="5">Q14-P14</f>
+        <v>1130000</v>
+      </c>
+      <c r="R14" s="55">
+        <f t="shared" ref="R14:R27" si="7">Q14-P14</f>
         <v>0</v>
       </c>
       <c r="S14" s="4"/>
@@ -2852,56 +2882,59 @@
     </row>
     <row r="15" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="57" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="69">
+      <c r="E15" s="68">
         <v>45908</v>
       </c>
-      <c r="F15" s="69">
+      <c r="F15" s="68">
         <v>45914</v>
       </c>
-      <c r="G15" s="69">
+      <c r="G15" s="68">
         <v>45914</v>
       </c>
-      <c r="H15" s="71">
+      <c r="H15" s="70">
         <f>SUM(H16:H17)</f>
         <v>30</v>
       </c>
-      <c r="I15" s="89">
+      <c r="I15" s="88">
         <f>SUM(I16:I17)</f>
         <v>55000</v>
       </c>
-      <c r="J15" s="81">
+      <c r="J15" s="80">
         <f t="shared" si="1"/>
         <v>1650000</v>
       </c>
       <c r="K15" s="33">
         <v>1</v>
       </c>
-      <c r="L15" s="89">
+      <c r="L15" s="88">
         <v>250000</v>
       </c>
-      <c r="M15" s="54">
+      <c r="M15" s="53">
         <f>K15*L15</f>
         <v>250000</v>
       </c>
-      <c r="N15" s="34"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="124">
-        <v>1900000</v>
-      </c>
-      <c r="Q15" s="81">
+      <c r="N15" s="34">
+        <v>100000</v>
+      </c>
+      <c r="O15" s="54"/>
+      <c r="P15" s="123">
+        <f t="shared" si="6"/>
+        <v>2250000</v>
+      </c>
+      <c r="Q15" s="80">
         <f t="shared" si="3"/>
-        <v>1900000</v>
-      </c>
-      <c r="R15" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2000000</v>
+      </c>
+      <c r="R15" s="55">
+        <f t="shared" si="7"/>
+        <v>-250000</v>
       </c>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
@@ -2928,49 +2961,50 @@
     </row>
     <row r="16" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="58" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="70">
+      <c r="E16" s="69">
         <v>45908</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="69">
         <v>45913</v>
       </c>
-      <c r="G16" s="70">
+      <c r="G16" s="69">
         <v>45913</v>
       </c>
-      <c r="H16" s="71">
+      <c r="H16" s="70">
         <v>10</v>
       </c>
-      <c r="I16" s="89">
+      <c r="I16" s="88">
         <v>30000</v>
       </c>
-      <c r="J16" s="81">
+      <c r="J16" s="80">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
       <c r="K16" s="33"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="54">
-        <f t="shared" ref="M16:M27" si="6">K16*L16</f>
+      <c r="L16" s="88"/>
+      <c r="M16" s="53">
+        <f t="shared" ref="M16:M27" si="8">K16*L16</f>
         <v>0</v>
       </c>
       <c r="N16" s="34"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="124">
+      <c r="O16" s="54"/>
+      <c r="P16" s="123">
+        <f t="shared" si="6"/>
         <v>300000</v>
       </c>
-      <c r="Q16" s="81">
+      <c r="Q16" s="80">
         <f t="shared" si="3"/>
         <v>300000</v>
       </c>
-      <c r="R16" s="56">
-        <f t="shared" si="5"/>
+      <c r="R16" s="55">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S16" s="4"/>
@@ -2998,49 +3032,50 @@
     </row>
     <row r="17" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="58" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="70">
+      <c r="E17" s="69">
         <v>45914</v>
       </c>
-      <c r="F17" s="70">
+      <c r="F17" s="69">
         <v>45915</v>
       </c>
-      <c r="G17" s="70">
+      <c r="G17" s="69">
         <v>45915</v>
       </c>
-      <c r="H17" s="71">
+      <c r="H17" s="70">
         <v>20</v>
       </c>
-      <c r="I17" s="89">
+      <c r="I17" s="88">
         <v>25000</v>
       </c>
-      <c r="J17" s="81">
+      <c r="J17" s="80">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K17" s="33"/>
-      <c r="L17" s="89"/>
-      <c r="M17" s="54">
+      <c r="L17" s="88"/>
+      <c r="M17" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="34"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="123">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="34"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="124">
         <v>500000</v>
       </c>
-      <c r="Q17" s="81">
+      <c r="Q17" s="80">
         <f t="shared" si="3"/>
         <v>500000</v>
       </c>
-      <c r="R17" s="56">
-        <f t="shared" si="5"/>
+      <c r="R17" s="55">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S17" s="4"/>
@@ -3068,56 +3103,59 @@
     </row>
     <row r="18" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
-      <c r="B18" s="58" t="s">
+      <c r="B18" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="69">
+      <c r="E18" s="68">
         <v>45910</v>
       </c>
-      <c r="F18" s="69">
+      <c r="F18" s="68">
         <v>45914</v>
       </c>
-      <c r="G18" s="69">
+      <c r="G18" s="68">
         <v>45914</v>
       </c>
-      <c r="H18" s="71">
+      <c r="H18" s="70">
         <f>SUM(H19:H20)</f>
         <v>40</v>
       </c>
-      <c r="I18" s="89">
+      <c r="I18" s="88">
         <f>SUM(I19:I20)</f>
         <v>55000</v>
       </c>
-      <c r="J18" s="81">
+      <c r="J18" s="80">
         <f t="shared" si="1"/>
         <v>2200000</v>
       </c>
       <c r="K18" s="33">
         <v>1</v>
       </c>
-      <c r="L18" s="89">
+      <c r="L18" s="88">
         <v>150000</v>
       </c>
-      <c r="M18" s="54">
+      <c r="M18" s="53">
+        <f t="shared" si="8"/>
+        <v>150000</v>
+      </c>
+      <c r="N18" s="34">
+        <v>100000</v>
+      </c>
+      <c r="O18" s="54"/>
+      <c r="P18" s="123">
         <f t="shared" si="6"/>
-        <v>150000</v>
-      </c>
-      <c r="N18" s="34"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="124">
-        <v>2350000</v>
-      </c>
-      <c r="Q18" s="81">
+        <v>2600000</v>
+      </c>
+      <c r="Q18" s="80">
         <f t="shared" si="3"/>
-        <v>2350000</v>
-      </c>
-      <c r="R18" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2450000</v>
+      </c>
+      <c r="R18" s="55">
+        <f t="shared" si="7"/>
+        <v>-150000</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
@@ -3144,49 +3182,52 @@
     </row>
     <row r="19" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="70">
+      <c r="E19" s="69">
         <v>45914</v>
       </c>
-      <c r="F19" s="70">
+      <c r="F19" s="69">
         <v>45916</v>
       </c>
-      <c r="G19" s="70">
+      <c r="G19" s="69">
         <v>45916</v>
       </c>
-      <c r="H19" s="71">
+      <c r="H19" s="70">
         <v>20</v>
       </c>
-      <c r="I19" s="89">
+      <c r="I19" s="88">
         <v>30000</v>
       </c>
-      <c r="J19" s="81">
+      <c r="J19" s="80">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="K19" s="33"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="54">
+      <c r="L19" s="88"/>
+      <c r="M19" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="34">
+        <v>100000</v>
+      </c>
+      <c r="O19" s="54"/>
+      <c r="P19" s="123">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="34"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="124">
-        <v>600000</v>
-      </c>
-      <c r="Q19" s="81">
+        <v>700000</v>
+      </c>
+      <c r="Q19" s="80">
         <f t="shared" si="3"/>
-        <v>600000</v>
-      </c>
-      <c r="R19" s="56">
-        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+      <c r="R19" s="55">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S19" s="4"/>
@@ -3214,49 +3255,52 @@
     </row>
     <row r="20" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="58" t="s">
         <v>53</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="69">
         <v>45914</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="69">
         <v>45917</v>
       </c>
-      <c r="G20" s="70">
+      <c r="G20" s="69">
         <v>45917</v>
       </c>
-      <c r="H20" s="71">
+      <c r="H20" s="70">
         <v>20</v>
       </c>
-      <c r="I20" s="89">
+      <c r="I20" s="88">
         <v>25000</v>
       </c>
-      <c r="J20" s="81">
+      <c r="J20" s="80">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K20" s="33"/>
-      <c r="L20" s="89"/>
-      <c r="M20" s="54">
+      <c r="L20" s="88"/>
+      <c r="M20" s="53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="34">
+        <v>50000</v>
+      </c>
+      <c r="O20" s="54"/>
+      <c r="P20" s="123">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="34"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="124">
-        <v>500000</v>
-      </c>
-      <c r="Q20" s="81">
+        <v>550000</v>
+      </c>
+      <c r="Q20" s="80">
         <f t="shared" si="3"/>
-        <v>500000</v>
-      </c>
-      <c r="R20" s="56">
-        <f t="shared" si="5"/>
+        <v>550000</v>
+      </c>
+      <c r="R20" s="55">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S20" s="4"/>
@@ -3284,58 +3328,59 @@
     </row>
     <row r="21" spans="1:40" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="61"/>
+      <c r="C21" s="60"/>
       <c r="D21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E21" s="99">
         <v>45914</v>
       </c>
-      <c r="F21" s="100">
+      <c r="F21" s="99">
         <v>45936</v>
       </c>
-      <c r="G21" s="100">
+      <c r="G21" s="99">
         <v>45936</v>
       </c>
-      <c r="H21" s="92">
+      <c r="H21" s="91">
         <f>SUM(H22:H24)+H25+H28</f>
         <v>180</v>
       </c>
-      <c r="I21" s="83">
+      <c r="I21" s="82">
         <f>SUM(I22:I24)+I25+I28</f>
         <v>205000</v>
       </c>
-      <c r="J21" s="81">
+      <c r="J21" s="80">
         <f t="shared" si="1"/>
         <v>36900000</v>
       </c>
-      <c r="K21" s="112">
+      <c r="K21" s="111">
         <f>SUM(K22:K30)</f>
         <v>2</v>
       </c>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83">
+      <c r="L21" s="82"/>
+      <c r="M21" s="82">
         <f>SUM(M22:M30)</f>
         <v>250000</v>
       </c>
-      <c r="N21" s="83">
+      <c r="N21" s="82">
         <v>1500000</v>
       </c>
-      <c r="O21" s="83">
+      <c r="O21" s="82">
         <v>200000</v>
       </c>
-      <c r="P21" s="83">
+      <c r="P21" s="82">
+        <f>J21+M21+N21+O21</f>
         <v>38850000</v>
       </c>
-      <c r="Q21" s="81">
+      <c r="Q21" s="80">
         <f t="shared" si="3"/>
         <v>38850000</v>
       </c>
-      <c r="R21" s="117">
-        <f t="shared" si="5"/>
+      <c r="R21" s="116">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S21" s="4"/>
@@ -3363,49 +3408,52 @@
     </row>
     <row r="22" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="58" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="68">
+      <c r="E22" s="67">
         <v>45914</v>
       </c>
-      <c r="F22" s="133">
+      <c r="F22" s="132">
         <v>45919</v>
       </c>
-      <c r="G22" s="133">
+      <c r="G22" s="132">
         <v>45919</v>
       </c>
-      <c r="H22" s="71">
+      <c r="H22" s="70">
         <v>30</v>
       </c>
-      <c r="I22" s="89">
+      <c r="I22" s="88">
         <v>30000</v>
       </c>
-      <c r="J22" s="81">
+      <c r="J22" s="80">
         <f t="shared" si="1"/>
         <v>900000</v>
       </c>
       <c r="K22" s="33"/>
-      <c r="L22" s="89"/>
-      <c r="M22" s="54">
-        <f t="shared" si="6"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="53">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N22" s="34"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="124">
-        <v>900000</v>
-      </c>
-      <c r="Q22" s="81">
+      <c r="O22" s="54">
+        <v>50000</v>
+      </c>
+      <c r="P22" s="123">
+        <f>SUM(K22:O22,J22)</f>
+        <v>950000</v>
+      </c>
+      <c r="Q22" s="80">
         <f t="shared" si="3"/>
-        <v>900000</v>
-      </c>
-      <c r="R22" s="56">
-        <f t="shared" si="5"/>
+        <v>950000</v>
+      </c>
+      <c r="R22" s="55">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S22" s="4"/>
@@ -3433,49 +3481,54 @@
     </row>
     <row r="23" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="58" t="s">
         <v>47</v>
       </c>
       <c r="C23" s="28"/>
       <c r="D23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="68">
+      <c r="E23" s="67">
         <v>45915</v>
       </c>
-      <c r="F23" s="133">
+      <c r="F23" s="132">
         <v>45919</v>
       </c>
-      <c r="G23" s="133">
+      <c r="G23" s="132">
         <v>45919</v>
       </c>
-      <c r="H23" s="71">
+      <c r="H23" s="70">
         <v>20</v>
       </c>
-      <c r="I23" s="89">
+      <c r="I23" s="88">
         <v>30000</v>
       </c>
-      <c r="J23" s="81">
+      <c r="J23" s="80">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="K23" s="33"/>
-      <c r="L23" s="89"/>
-      <c r="M23" s="54">
-        <f t="shared" si="6"/>
+      <c r="L23" s="88"/>
+      <c r="M23" s="53">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N23" s="34"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="124">
-        <v>600000</v>
-      </c>
-      <c r="Q23" s="81">
+      <c r="N23" s="34">
+        <v>50000</v>
+      </c>
+      <c r="O23" s="54">
+        <v>50000</v>
+      </c>
+      <c r="P23" s="123">
+        <f t="shared" ref="P23:P30" si="9">SUM(K23:O23,J23)</f>
+        <v>700000</v>
+      </c>
+      <c r="Q23" s="80">
         <f t="shared" si="3"/>
-        <v>600000</v>
-      </c>
-      <c r="R23" s="56">
-        <f t="shared" si="5"/>
+        <v>700000</v>
+      </c>
+      <c r="R23" s="55">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S23" s="4"/>
@@ -3503,54 +3556,57 @@
     </row>
     <row r="24" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="58" t="s">
         <v>56</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="68">
+      <c r="E24" s="67">
         <v>45917</v>
       </c>
-      <c r="F24" s="133">
+      <c r="F24" s="132">
         <v>45929</v>
       </c>
-      <c r="G24" s="133">
+      <c r="G24" s="132">
         <v>45929</v>
       </c>
-      <c r="H24" s="71">
+      <c r="H24" s="70">
         <v>30</v>
       </c>
-      <c r="I24" s="89">
+      <c r="I24" s="88">
         <v>25000</v>
       </c>
-      <c r="J24" s="81">
+      <c r="J24" s="80">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="K24" s="33">
         <v>1</v>
       </c>
-      <c r="L24" s="89">
+      <c r="L24" s="88">
         <v>100000</v>
       </c>
-      <c r="M24" s="54">
-        <f t="shared" si="6"/>
+      <c r="M24" s="53">
+        <f t="shared" si="8"/>
         <v>100000</v>
       </c>
-      <c r="N24" s="34"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="124">
-        <v>850000</v>
-      </c>
-      <c r="Q24" s="81">
+      <c r="N24" s="34">
+        <v>600000</v>
+      </c>
+      <c r="O24" s="54"/>
+      <c r="P24" s="123">
+        <f t="shared" si="9"/>
+        <v>1550001</v>
+      </c>
+      <c r="Q24" s="80">
         <f t="shared" si="3"/>
-        <v>850000</v>
-      </c>
-      <c r="R24" s="56">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1450000</v>
+      </c>
+      <c r="R24" s="55">
+        <f t="shared" si="7"/>
+        <v>-100001</v>
       </c>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
@@ -3577,51 +3633,54 @@
     </row>
     <row r="25" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="57" t="s">
         <v>57</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="67">
+      <c r="E25" s="66">
         <v>45919</v>
       </c>
-      <c r="F25" s="134">
+      <c r="F25" s="133">
         <v>45929</v>
       </c>
-      <c r="G25" s="134">
+      <c r="G25" s="133">
         <v>45929</v>
       </c>
-      <c r="H25" s="71">
+      <c r="H25" s="70">
         <f>SUM(H26:H27)</f>
         <v>40</v>
       </c>
-      <c r="I25" s="89">
+      <c r="I25" s="88">
         <f>SUM(I26:I27)</f>
         <v>60000</v>
       </c>
-      <c r="J25" s="81">
+      <c r="J25" s="80">
         <f t="shared" si="1"/>
         <v>2400000</v>
       </c>
       <c r="K25" s="33"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="54">
-        <f t="shared" si="6"/>
+      <c r="L25" s="88"/>
+      <c r="M25" s="53">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N25" s="34"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="124">
-        <v>2400000</v>
-      </c>
-      <c r="Q25" s="81">
+      <c r="N25" s="34">
+        <v>500000</v>
+      </c>
+      <c r="O25" s="54"/>
+      <c r="P25" s="123">
+        <f t="shared" si="9"/>
+        <v>2900000</v>
+      </c>
+      <c r="Q25" s="80">
         <f t="shared" si="3"/>
-        <v>2400000</v>
-      </c>
-      <c r="R25" s="56">
-        <f t="shared" si="5"/>
+        <v>2900000</v>
+      </c>
+      <c r="R25" s="55">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S25" s="4"/>
@@ -3649,49 +3708,52 @@
     </row>
     <row r="26" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="58" t="s">
         <v>49</v>
       </c>
       <c r="C26" s="28"/>
       <c r="D26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="68">
+      <c r="E26" s="67">
         <v>45919</v>
       </c>
-      <c r="F26" s="133">
+      <c r="F26" s="132">
         <v>45922</v>
       </c>
-      <c r="G26" s="133">
+      <c r="G26" s="132">
         <v>45922</v>
       </c>
-      <c r="H26" s="71">
+      <c r="H26" s="70">
         <v>20</v>
       </c>
-      <c r="I26" s="89">
+      <c r="I26" s="88">
         <v>30000</v>
       </c>
-      <c r="J26" s="81">
+      <c r="J26" s="80">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="K26" s="33"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="54">
-        <f t="shared" si="6"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="53">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N26" s="34"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="124">
-        <v>600000</v>
-      </c>
-      <c r="Q26" s="81">
+      <c r="O26" s="54">
+        <v>50000</v>
+      </c>
+      <c r="P26" s="123">
+        <f t="shared" si="9"/>
+        <v>650000</v>
+      </c>
+      <c r="Q26" s="80">
         <f t="shared" si="3"/>
-        <v>600000</v>
-      </c>
-      <c r="R26" s="56">
-        <f t="shared" si="5"/>
+        <v>650000</v>
+      </c>
+      <c r="R26" s="55">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S26" s="4"/>
@@ -3719,49 +3781,52 @@
     </row>
     <row r="27" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="58" t="s">
         <v>50</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="70">
+      <c r="E27" s="69">
         <v>45923</v>
       </c>
-      <c r="F27" s="135">
+      <c r="F27" s="134">
         <v>45928</v>
       </c>
-      <c r="G27" s="135">
+      <c r="G27" s="134">
         <v>45928</v>
       </c>
-      <c r="H27" s="71">
+      <c r="H27" s="70">
         <v>20</v>
       </c>
-      <c r="I27" s="89">
+      <c r="I27" s="88">
         <v>30000</v>
       </c>
-      <c r="J27" s="81">
+      <c r="J27" s="80">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="K27" s="33"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="54">
-        <f t="shared" si="6"/>
+      <c r="L27" s="88"/>
+      <c r="M27" s="53">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N27" s="34"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="124">
-        <v>600000</v>
-      </c>
-      <c r="Q27" s="81">
+      <c r="O27" s="54">
+        <v>50000</v>
+      </c>
+      <c r="P27" s="123">
+        <f t="shared" si="9"/>
+        <v>650000</v>
+      </c>
+      <c r="Q27" s="80">
         <f t="shared" si="3"/>
-        <v>600000</v>
-      </c>
-      <c r="R27" s="56">
-        <f t="shared" si="5"/>
+        <v>650000</v>
+      </c>
+      <c r="R27" s="55">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S27" s="4"/>
@@ -3789,56 +3854,59 @@
     </row>
     <row r="28" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
-      <c r="B28" s="58" t="s">
+      <c r="B28" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="68">
         <v>45925</v>
       </c>
-      <c r="F28" s="136">
+      <c r="F28" s="135">
         <v>45936</v>
       </c>
-      <c r="G28" s="136">
+      <c r="G28" s="135">
         <v>45936</v>
       </c>
-      <c r="H28" s="71">
+      <c r="H28" s="70">
         <f>SUM(H29:H30)</f>
         <v>60</v>
       </c>
-      <c r="I28" s="89">
+      <c r="I28" s="88">
         <f>SUM(I29:I30)</f>
         <v>60000</v>
       </c>
-      <c r="J28" s="81">
+      <c r="J28" s="80">
         <f t="shared" si="1"/>
         <v>3600000</v>
       </c>
       <c r="K28" s="33">
         <v>1</v>
       </c>
-      <c r="L28" s="89">
+      <c r="L28" s="88">
         <v>150000</v>
       </c>
-      <c r="M28" s="54">
-        <f t="shared" ref="M28:M37" si="7">K28*L28</f>
+      <c r="M28" s="53">
+        <f t="shared" ref="M28:M37" si="10">K28*L28</f>
         <v>150000</v>
       </c>
-      <c r="N28" s="34"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="124">
-        <v>3750000</v>
-      </c>
-      <c r="Q28" s="81">
+      <c r="N28" s="34">
+        <v>300000</v>
+      </c>
+      <c r="O28" s="54"/>
+      <c r="P28" s="123">
+        <f t="shared" si="9"/>
+        <v>4200001</v>
+      </c>
+      <c r="Q28" s="80">
         <f t="shared" si="3"/>
-        <v>3750000</v>
-      </c>
-      <c r="R28" s="56">
-        <f t="shared" ref="R28:R37" si="8">Q28-P28</f>
-        <v>0</v>
+        <v>4050000</v>
+      </c>
+      <c r="R28" s="55">
+        <f t="shared" ref="R28:R37" si="11">Q28-P28</f>
+        <v>-150001</v>
       </c>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
@@ -3865,49 +3933,50 @@
     </row>
     <row r="29" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="58" t="s">
         <v>52</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="70">
+      <c r="E29" s="69">
         <v>45925</v>
       </c>
-      <c r="F29" s="135">
+      <c r="F29" s="134">
         <v>45936</v>
       </c>
-      <c r="G29" s="135">
+      <c r="G29" s="134">
         <v>45936</v>
       </c>
-      <c r="H29" s="71">
+      <c r="H29" s="70">
         <v>30</v>
       </c>
-      <c r="I29" s="89">
+      <c r="I29" s="88">
         <v>30000</v>
       </c>
-      <c r="J29" s="81">
+      <c r="J29" s="80">
         <f t="shared" si="1"/>
         <v>900000</v>
       </c>
       <c r="K29" s="33"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="54">
-        <f t="shared" si="7"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="53">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N29" s="34"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="124">
+      <c r="O29" s="54"/>
+      <c r="P29" s="123">
+        <f t="shared" si="9"/>
         <v>900000</v>
       </c>
-      <c r="Q29" s="81">
+      <c r="Q29" s="80">
         <f t="shared" si="3"/>
         <v>900000</v>
       </c>
-      <c r="R29" s="56">
-        <f t="shared" si="8"/>
+      <c r="R29" s="55">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S29" s="4"/>
@@ -3934,106 +4003,110 @@
       <c r="AN29" s="4"/>
     </row>
     <row r="30" spans="1:40" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="58" t="s">
         <v>53</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="69">
         <v>45930</v>
       </c>
-      <c r="F30" s="135">
+      <c r="F30" s="134">
         <v>45936</v>
       </c>
-      <c r="G30" s="135">
+      <c r="G30" s="134">
         <v>45936</v>
       </c>
-      <c r="H30" s="71">
+      <c r="H30" s="70">
         <v>30</v>
       </c>
-      <c r="I30" s="89">
+      <c r="I30" s="88">
         <v>30000</v>
       </c>
-      <c r="J30" s="81">
+      <c r="J30" s="80">
         <f t="shared" si="1"/>
         <v>900000</v>
       </c>
       <c r="K30" s="33"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="54">
-        <f t="shared" si="7"/>
+      <c r="L30" s="88"/>
+      <c r="M30" s="53">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="124">
-        <v>900000</v>
-      </c>
-      <c r="Q30" s="81">
+      <c r="N30" s="34">
+        <v>50000</v>
+      </c>
+      <c r="O30" s="54"/>
+      <c r="P30" s="123">
+        <f t="shared" si="9"/>
+        <v>950000</v>
+      </c>
+      <c r="Q30" s="80">
         <f t="shared" si="3"/>
-        <v>900000</v>
-      </c>
-      <c r="R30" s="56">
-        <f t="shared" si="8"/>
+        <v>950000</v>
+      </c>
+      <c r="R30" s="55">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="62"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="101">
+      <c r="E31" s="100">
         <v>45933</v>
       </c>
-      <c r="F31" s="101">
+      <c r="F31" s="100">
         <v>45942</v>
       </c>
-      <c r="G31" s="101">
+      <c r="G31" s="100">
         <v>45942</v>
       </c>
-      <c r="H31" s="93">
+      <c r="H31" s="92">
         <f>SUM(H32:H34)</f>
         <v>140</v>
       </c>
-      <c r="I31" s="84">
+      <c r="I31" s="83">
         <f>SUM(I32:I34)</f>
         <v>86000</v>
       </c>
-      <c r="J31" s="81">
+      <c r="J31" s="80">
         <f t="shared" si="1"/>
         <v>12040000</v>
       </c>
-      <c r="K31" s="111">
+      <c r="K31" s="110">
         <f>SUM(K32:K34)</f>
         <v>1</v>
       </c>
-      <c r="L31" s="111"/>
-      <c r="M31" s="84">
+      <c r="L31" s="110"/>
+      <c r="M31" s="83">
         <f>SUM(M32:M34)</f>
         <v>150000</v>
       </c>
-      <c r="N31" s="84">
+      <c r="N31" s="83">
         <v>700000</v>
       </c>
-      <c r="O31" s="84">
-        <v>250000</v>
-      </c>
-      <c r="P31" s="84">
-        <v>13140000</v>
-      </c>
-      <c r="Q31" s="81">
+      <c r="O31" s="83">
+        <v>50000</v>
+      </c>
+      <c r="P31" s="83">
+        <f>J31+M31+N31+O31</f>
+        <v>12940000</v>
+      </c>
+      <c r="Q31" s="80">
         <f t="shared" si="3"/>
-        <v>13140000</v>
-      </c>
-      <c r="R31" s="118">
-        <f t="shared" si="8"/>
+        <v>12940000</v>
+      </c>
+      <c r="R31" s="117">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S31" s="1"/>
@@ -4061,49 +4134,54 @@
     </row>
     <row r="32" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="58" t="s">
         <v>60</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="68">
+      <c r="E32" s="67">
         <v>45933</v>
       </c>
-      <c r="F32" s="133">
+      <c r="F32" s="132">
         <v>45938</v>
       </c>
-      <c r="G32" s="133">
+      <c r="G32" s="132">
         <v>45938</v>
       </c>
-      <c r="H32" s="71">
+      <c r="H32" s="70">
         <v>60</v>
       </c>
-      <c r="I32" s="89">
+      <c r="I32" s="88">
         <v>28000</v>
       </c>
-      <c r="J32" s="81">
+      <c r="J32" s="80">
         <f t="shared" si="1"/>
         <v>1680000</v>
       </c>
       <c r="K32" s="33"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="54">
-        <f t="shared" si="7"/>
+      <c r="L32" s="88"/>
+      <c r="M32" s="53">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N32" s="34"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="124">
-        <v>1680000</v>
-      </c>
-      <c r="Q32" s="81">
+      <c r="N32" s="34">
+        <v>400000</v>
+      </c>
+      <c r="O32" s="54">
+        <v>50000</v>
+      </c>
+      <c r="P32" s="123">
+        <f>SUM(L32:O32,J32)</f>
+        <v>2130000</v>
+      </c>
+      <c r="Q32" s="80">
         <f t="shared" si="3"/>
-        <v>1680000</v>
-      </c>
-      <c r="R32" s="56">
-        <f t="shared" si="8"/>
+        <v>2130000</v>
+      </c>
+      <c r="R32" s="55">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S32" s="1"/>
@@ -4131,49 +4209,52 @@
     </row>
     <row r="33" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="58" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="68">
+      <c r="E33" s="67">
         <v>45933</v>
       </c>
-      <c r="F33" s="133">
+      <c r="F33" s="132">
         <v>45940</v>
       </c>
-      <c r="G33" s="133">
+      <c r="G33" s="132">
         <v>45940</v>
       </c>
-      <c r="H33" s="71">
+      <c r="H33" s="70">
         <v>40</v>
       </c>
-      <c r="I33" s="89">
+      <c r="I33" s="88">
         <v>30000</v>
       </c>
-      <c r="J33" s="81">
+      <c r="J33" s="80">
         <f t="shared" si="1"/>
         <v>1200000</v>
       </c>
       <c r="K33" s="33"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="54">
-        <f t="shared" si="7"/>
+      <c r="L33" s="88"/>
+      <c r="M33" s="53">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N33" s="34"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="124">
-        <v>1200000</v>
-      </c>
-      <c r="Q33" s="81">
+      <c r="N33" s="34">
+        <v>150000</v>
+      </c>
+      <c r="O33" s="54"/>
+      <c r="P33" s="123">
+        <f t="shared" ref="P33:P34" si="12">SUM(L33:O33,J33)</f>
+        <v>1350000</v>
+      </c>
+      <c r="Q33" s="80">
         <f t="shared" si="3"/>
-        <v>1200000</v>
-      </c>
-      <c r="R33" s="56">
-        <f t="shared" si="8"/>
+        <v>1350000</v>
+      </c>
+      <c r="R33" s="55">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S33" s="1"/>
@@ -4201,54 +4282,57 @@
     </row>
     <row r="34" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="59" t="s">
+      <c r="B34" s="58" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="28"/>
       <c r="D34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="68">
+      <c r="E34" s="67">
         <v>45935</v>
       </c>
-      <c r="F34" s="133">
+      <c r="F34" s="132">
         <v>45942</v>
       </c>
-      <c r="G34" s="133">
+      <c r="G34" s="132">
         <v>45942</v>
       </c>
-      <c r="H34" s="71">
+      <c r="H34" s="70">
         <v>40</v>
       </c>
-      <c r="I34" s="89">
+      <c r="I34" s="88">
         <v>28000</v>
       </c>
-      <c r="J34" s="81">
+      <c r="J34" s="80">
         <f t="shared" si="1"/>
         <v>1120000</v>
       </c>
       <c r="K34" s="33">
         <v>1</v>
       </c>
-      <c r="L34" s="89">
+      <c r="L34" s="88">
         <v>150000</v>
       </c>
-      <c r="M34" s="54">
-        <f t="shared" si="7"/>
+      <c r="M34" s="53">
+        <f t="shared" si="10"/>
         <v>150000</v>
       </c>
-      <c r="N34" s="34"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="124">
-        <v>1270000</v>
-      </c>
-      <c r="Q34" s="81">
+      <c r="N34" s="34">
+        <v>150000</v>
+      </c>
+      <c r="O34" s="54"/>
+      <c r="P34" s="123">
+        <f t="shared" si="12"/>
+        <v>1570000</v>
+      </c>
+      <c r="Q34" s="80">
         <f t="shared" si="3"/>
-        <v>1270000</v>
-      </c>
-      <c r="R34" s="56">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1420000</v>
+      </c>
+      <c r="R34" s="55">
+        <f t="shared" si="11"/>
+        <v>-150000</v>
       </c>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
@@ -4275,58 +4359,59 @@
     </row>
     <row r="35" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="63"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="102">
+      <c r="E35" s="101">
         <v>45937</v>
       </c>
-      <c r="F35" s="102">
+      <c r="F35" s="101">
         <v>45948</v>
       </c>
-      <c r="G35" s="102">
+      <c r="G35" s="101">
         <v>45948</v>
       </c>
-      <c r="H35" s="94">
+      <c r="H35" s="93">
         <f>SUM(H36:H37)</f>
         <v>100</v>
       </c>
-      <c r="I35" s="85">
+      <c r="I35" s="84">
         <f>SUM(I36:I37)</f>
         <v>50000</v>
       </c>
-      <c r="J35" s="81">
+      <c r="J35" s="80">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
-      <c r="K35" s="110">
+      <c r="K35" s="109">
         <f>SUM(K36:K37)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="85"/>
-      <c r="M35" s="85">
-        <f t="shared" si="7"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N35" s="85">
+      <c r="N35" s="84">
         <v>400000</v>
       </c>
-      <c r="O35" s="85">
-        <v>120000</v>
-      </c>
-      <c r="P35" s="85">
-        <v>5520000</v>
-      </c>
-      <c r="Q35" s="81">
+      <c r="O35" s="84">
+        <v>80000</v>
+      </c>
+      <c r="P35" s="84">
+        <f>J35+N35+O35+M35</f>
+        <v>5480000</v>
+      </c>
+      <c r="Q35" s="80">
         <f t="shared" si="3"/>
-        <v>5520000</v>
-      </c>
-      <c r="R35" s="119">
-        <f t="shared" si="8"/>
+        <v>5480000</v>
+      </c>
+      <c r="R35" s="118">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S35" s="1"/>
@@ -4354,49 +4439,54 @@
     </row>
     <row r="36" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="59" t="s">
+      <c r="B36" s="58" t="s">
         <v>64</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="68">
+      <c r="E36" s="67">
         <v>45937</v>
       </c>
-      <c r="F36" s="133">
+      <c r="F36" s="132">
         <v>45946</v>
       </c>
-      <c r="G36" s="133">
+      <c r="G36" s="132">
         <v>45946</v>
       </c>
-      <c r="H36" s="71">
+      <c r="H36" s="70">
         <v>50</v>
       </c>
-      <c r="I36" s="89">
+      <c r="I36" s="88">
         <v>25000</v>
       </c>
-      <c r="J36" s="81">
+      <c r="J36" s="80">
         <f t="shared" si="1"/>
         <v>1250000</v>
       </c>
       <c r="K36" s="33"/>
-      <c r="L36" s="89"/>
-      <c r="M36" s="54">
-        <f t="shared" si="7"/>
+      <c r="L36" s="88"/>
+      <c r="M36" s="53">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N36" s="34"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="124">
-        <v>1250000</v>
-      </c>
-      <c r="Q36" s="81">
+      <c r="N36" s="34">
+        <v>100000</v>
+      </c>
+      <c r="O36" s="54">
+        <v>80000</v>
+      </c>
+      <c r="P36" s="123">
+        <f>SUM(L36:O36,J36)</f>
+        <v>1430000</v>
+      </c>
+      <c r="Q36" s="80">
         <f t="shared" si="3"/>
-        <v>1250000</v>
-      </c>
-      <c r="R36" s="56">
-        <f t="shared" si="8"/>
+        <v>1430000</v>
+      </c>
+      <c r="R36" s="55">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S36" s="1"/>
@@ -4424,49 +4514,52 @@
     </row>
     <row r="37" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="58" t="s">
         <v>65</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="68">
+      <c r="E37" s="67">
         <v>45940</v>
       </c>
-      <c r="F37" s="133">
+      <c r="F37" s="132">
         <v>45948</v>
       </c>
-      <c r="G37" s="133">
+      <c r="G37" s="132">
         <v>45948</v>
       </c>
-      <c r="H37" s="71">
+      <c r="H37" s="70">
         <v>50</v>
       </c>
-      <c r="I37" s="89">
+      <c r="I37" s="88">
         <v>25000</v>
       </c>
-      <c r="J37" s="81">
+      <c r="J37" s="80">
         <f t="shared" si="1"/>
         <v>1250000</v>
       </c>
       <c r="K37" s="33"/>
-      <c r="L37" s="89"/>
-      <c r="M37" s="54">
-        <f t="shared" si="7"/>
+      <c r="L37" s="88"/>
+      <c r="M37" s="53">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N37" s="34"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="124">
-        <v>1250000</v>
-      </c>
-      <c r="Q37" s="81">
+      <c r="N37" s="34">
+        <v>300000</v>
+      </c>
+      <c r="O37" s="54"/>
+      <c r="P37" s="123">
+        <f>SUM(L37:O37,J37)</f>
+        <v>1550000</v>
+      </c>
+      <c r="Q37" s="80">
         <f t="shared" si="3"/>
-        <v>1250000</v>
-      </c>
-      <c r="R37" s="56">
-        <f t="shared" si="8"/>
+        <v>1550000</v>
+      </c>
+      <c r="R37" s="55">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S37" s="1"/>
@@ -4494,55 +4587,56 @@
     </row>
     <row r="38" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="64"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="103">
+      <c r="E38" s="102">
         <v>45942</v>
       </c>
-      <c r="F38" s="103">
+      <c r="F38" s="102">
         <v>45954</v>
       </c>
-      <c r="G38" s="103">
+      <c r="G38" s="102">
         <v>45954</v>
       </c>
-      <c r="H38" s="95">
+      <c r="H38" s="94">
         <f>SUM(H39:H41)</f>
         <v>80</v>
       </c>
-      <c r="I38" s="86">
+      <c r="I38" s="85">
         <f>SUM(I39:I41)</f>
         <v>80000</v>
       </c>
-      <c r="J38" s="81">
+      <c r="J38" s="80">
         <f t="shared" si="1"/>
         <v>6400000</v>
       </c>
-      <c r="K38" s="64">
+      <c r="K38" s="63">
         <v>0</v>
       </c>
-      <c r="L38" s="86"/>
-      <c r="M38" s="86">
-        <f t="shared" ref="M38:M53" si="9">K38*L38</f>
+      <c r="L38" s="85"/>
+      <c r="M38" s="85">
+        <f t="shared" ref="M38:M53" si="13">K38*L38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="86">
+      <c r="N38" s="85">
         <v>300000</v>
       </c>
-      <c r="O38" s="86">
+      <c r="O38" s="85">
         <v>100000</v>
       </c>
-      <c r="P38" s="86">
+      <c r="P38" s="85">
+        <f>SUM(M38:O38,J38)</f>
         <v>6800000</v>
       </c>
-      <c r="Q38" s="81">
+      <c r="Q38" s="80">
         <f t="shared" si="3"/>
         <v>6800000</v>
       </c>
-      <c r="R38" s="120">
-        <f t="shared" ref="R38:R53" si="10">Q38-P38</f>
+      <c r="R38" s="119">
+        <f t="shared" ref="R38:R53" si="14">Q38-P38</f>
         <v>0</v>
       </c>
       <c r="S38" s="1"/>
@@ -4570,49 +4664,52 @@
     </row>
     <row r="39" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="59" t="s">
+      <c r="B39" s="58" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="104">
+      <c r="E39" s="103">
         <v>45942</v>
       </c>
-      <c r="F39" s="133">
+      <c r="F39" s="132">
         <v>45951</v>
       </c>
-      <c r="G39" s="133">
+      <c r="G39" s="132">
         <v>45951</v>
       </c>
-      <c r="H39" s="71">
+      <c r="H39" s="70">
         <v>30</v>
       </c>
-      <c r="I39" s="89">
+      <c r="I39" s="88">
         <v>25000</v>
       </c>
-      <c r="J39" s="81">
+      <c r="J39" s="80">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="K39" s="33"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="54">
-        <f t="shared" si="9"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="53">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N39" s="34"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="124">
-        <v>750000</v>
-      </c>
-      <c r="Q39" s="81">
+      <c r="N39" s="34">
+        <v>150000</v>
+      </c>
+      <c r="O39" s="54"/>
+      <c r="P39" s="123">
+        <f>SUM(L39:O39,J39)</f>
+        <v>900000</v>
+      </c>
+      <c r="Q39" s="80">
         <f t="shared" si="3"/>
-        <v>750000</v>
-      </c>
-      <c r="R39" s="56">
-        <f t="shared" si="10"/>
+        <v>900000</v>
+      </c>
+      <c r="R39" s="55">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S39" s="1"/>
@@ -4640,49 +4737,54 @@
     </row>
     <row r="40" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="59" t="s">
+      <c r="B40" s="58" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="68">
+      <c r="E40" s="67">
         <v>45945</v>
       </c>
-      <c r="F40" s="133">
+      <c r="F40" s="132">
         <v>45953</v>
       </c>
-      <c r="G40" s="133">
+      <c r="G40" s="132">
         <v>45953</v>
       </c>
-      <c r="H40" s="71">
+      <c r="H40" s="70">
         <v>30</v>
       </c>
-      <c r="I40" s="89">
+      <c r="I40" s="88">
         <v>25000</v>
       </c>
-      <c r="J40" s="81">
+      <c r="J40" s="80">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="K40" s="33"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="54">
-        <f t="shared" si="9"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="53">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N40" s="34"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="124">
-        <v>750000</v>
-      </c>
-      <c r="Q40" s="81">
+      <c r="N40" s="34">
+        <v>50000</v>
+      </c>
+      <c r="O40" s="54">
+        <v>100000</v>
+      </c>
+      <c r="P40" s="123">
+        <f t="shared" ref="P40:P41" si="15">SUM(L40:O40,J40)</f>
+        <v>900000</v>
+      </c>
+      <c r="Q40" s="80">
         <f t="shared" si="3"/>
-        <v>750000</v>
-      </c>
-      <c r="R40" s="56">
-        <f t="shared" si="10"/>
+        <v>900000</v>
+      </c>
+      <c r="R40" s="55">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S40" s="1"/>
@@ -4710,49 +4812,52 @@
     </row>
     <row r="41" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="58" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E41" s="68">
+      <c r="E41" s="67">
         <v>45947</v>
       </c>
-      <c r="F41" s="133">
+      <c r="F41" s="132">
         <v>45954</v>
       </c>
-      <c r="G41" s="133">
+      <c r="G41" s="132">
         <v>45954</v>
       </c>
-      <c r="H41" s="71">
+      <c r="H41" s="70">
         <v>20</v>
       </c>
-      <c r="I41" s="89">
+      <c r="I41" s="88">
         <v>30000</v>
       </c>
-      <c r="J41" s="81">
+      <c r="J41" s="80">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="K41" s="33"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="54">
-        <f t="shared" si="9"/>
+      <c r="L41" s="88"/>
+      <c r="M41" s="53">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N41" s="34"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="124">
-        <v>600000</v>
-      </c>
-      <c r="Q41" s="81">
+      <c r="N41" s="34">
+        <v>100000</v>
+      </c>
+      <c r="O41" s="54"/>
+      <c r="P41" s="123">
+        <f t="shared" si="15"/>
+        <v>700000</v>
+      </c>
+      <c r="Q41" s="80">
         <f t="shared" si="3"/>
-        <v>600000</v>
-      </c>
-      <c r="R41" s="56">
-        <f t="shared" si="10"/>
+        <v>700000</v>
+      </c>
+      <c r="R41" s="55">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S41" s="1"/>
@@ -4780,56 +4885,57 @@
     </row>
     <row r="42" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="65"/>
+      <c r="C42" s="64"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="105">
+      <c r="E42" s="104">
         <v>45949</v>
       </c>
-      <c r="F42" s="105">
+      <c r="F42" s="104">
         <v>45960</v>
       </c>
-      <c r="G42" s="105">
+      <c r="G42" s="104">
         <v>45960</v>
       </c>
-      <c r="H42" s="96">
+      <c r="H42" s="95">
         <f>SUM(H43:H45)</f>
         <v>80</v>
       </c>
-      <c r="I42" s="87">
+      <c r="I42" s="86">
         <f>SUM(I43:I45)</f>
         <v>75000</v>
       </c>
-      <c r="J42" s="81">
+      <c r="J42" s="80">
         <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
-      <c r="K42" s="109">
+      <c r="K42" s="108">
         <f>SUM(K43:K45)</f>
         <v>0</v>
       </c>
-      <c r="L42" s="109"/>
-      <c r="M42" s="87">
-        <f t="shared" si="9"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="86">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N42" s="87">
+      <c r="N42" s="86">
         <v>400000</v>
       </c>
-      <c r="O42" s="87">
-        <v>120000</v>
-      </c>
-      <c r="P42" s="87">
-        <v>6520000</v>
-      </c>
-      <c r="Q42" s="81">
+      <c r="O42" s="86">
+        <v>60000</v>
+      </c>
+      <c r="P42" s="86">
+        <f>SUM(M42:O42,J42)</f>
+        <v>6460000</v>
+      </c>
+      <c r="Q42" s="80">
         <f t="shared" si="3"/>
-        <v>6520000</v>
-      </c>
-      <c r="R42" s="121">
-        <f t="shared" si="10"/>
+        <v>6460000</v>
+      </c>
+      <c r="R42" s="120">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S42" s="1"/>
@@ -4857,49 +4963,54 @@
     </row>
     <row r="43" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="58" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="68">
+      <c r="E43" s="67">
         <v>45949</v>
       </c>
-      <c r="F43" s="133">
+      <c r="F43" s="132">
         <v>45957</v>
       </c>
-      <c r="G43" s="133">
+      <c r="G43" s="132">
         <v>45957</v>
       </c>
-      <c r="H43" s="71">
+      <c r="H43" s="70">
         <v>30</v>
       </c>
-      <c r="I43" s="89">
+      <c r="I43" s="88">
         <v>25000</v>
       </c>
-      <c r="J43" s="81">
+      <c r="J43" s="80">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="K43" s="33"/>
-      <c r="L43" s="89"/>
-      <c r="M43" s="54">
-        <f t="shared" si="9"/>
+      <c r="L43" s="88"/>
+      <c r="M43" s="53">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N43" s="34"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="124">
-        <v>750000</v>
-      </c>
-      <c r="Q43" s="81">
+      <c r="N43" s="34">
+        <v>50000</v>
+      </c>
+      <c r="O43" s="54">
+        <v>60000</v>
+      </c>
+      <c r="P43" s="123">
+        <f>SUM(L43:O43,J43)</f>
+        <v>860000</v>
+      </c>
+      <c r="Q43" s="80">
         <f t="shared" si="3"/>
-        <v>750000</v>
-      </c>
-      <c r="R43" s="56">
-        <f t="shared" si="10"/>
+        <v>860000</v>
+      </c>
+      <c r="R43" s="55">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S43" s="1"/>
@@ -4927,49 +5038,52 @@
     </row>
     <row r="44" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="59" t="s">
+      <c r="B44" s="58" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="68">
+      <c r="E44" s="67">
         <v>45952</v>
       </c>
-      <c r="F44" s="133">
+      <c r="F44" s="132">
         <v>45959</v>
       </c>
-      <c r="G44" s="133">
+      <c r="G44" s="132">
         <v>45959</v>
       </c>
-      <c r="H44" s="71">
+      <c r="H44" s="70">
         <v>30</v>
       </c>
-      <c r="I44" s="89">
+      <c r="I44" s="88">
         <v>25000</v>
       </c>
-      <c r="J44" s="81">
+      <c r="J44" s="80">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="K44" s="33"/>
-      <c r="L44" s="89"/>
-      <c r="M44" s="54">
-        <f t="shared" si="9"/>
+      <c r="L44" s="88"/>
+      <c r="M44" s="53">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N44" s="34"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="124">
-        <v>750000</v>
-      </c>
-      <c r="Q44" s="81">
+      <c r="N44" s="34">
+        <v>200000</v>
+      </c>
+      <c r="O44" s="54"/>
+      <c r="P44" s="123">
+        <f t="shared" ref="P44:P45" si="16">SUM(L44:O44,J44)</f>
+        <v>950000</v>
+      </c>
+      <c r="Q44" s="80">
         <f t="shared" si="3"/>
-        <v>750000</v>
-      </c>
-      <c r="R44" s="56">
-        <f t="shared" si="10"/>
+        <v>950000</v>
+      </c>
+      <c r="R44" s="55">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S44" s="1"/>
@@ -4997,49 +5111,52 @@
     </row>
     <row r="45" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="58" t="s">
         <v>73</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="68">
+      <c r="E45" s="67">
         <v>45954</v>
       </c>
-      <c r="F45" s="133">
+      <c r="F45" s="132">
         <v>45960</v>
       </c>
-      <c r="G45" s="133">
+      <c r="G45" s="132">
         <v>45960</v>
       </c>
-      <c r="H45" s="71">
+      <c r="H45" s="70">
         <v>20</v>
       </c>
-      <c r="I45" s="89">
+      <c r="I45" s="88">
         <v>25000</v>
       </c>
-      <c r="J45" s="81">
+      <c r="J45" s="80">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K45" s="33"/>
-      <c r="L45" s="89"/>
-      <c r="M45" s="54">
-        <f t="shared" si="9"/>
+      <c r="L45" s="88"/>
+      <c r="M45" s="53">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N45" s="34"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="124">
-        <v>500000</v>
-      </c>
-      <c r="Q45" s="81">
+      <c r="N45" s="34">
+        <v>150000</v>
+      </c>
+      <c r="O45" s="54"/>
+      <c r="P45" s="123">
+        <f t="shared" si="16"/>
+        <v>650000</v>
+      </c>
+      <c r="Q45" s="80">
         <f t="shared" si="3"/>
-        <v>500000</v>
-      </c>
-      <c r="R45" s="56">
-        <f t="shared" si="10"/>
+        <v>650000</v>
+      </c>
+      <c r="R45" s="55">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S45" s="1"/>
@@ -5067,56 +5184,57 @@
     </row>
     <row r="46" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="66" t="s">
+      <c r="B46" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="C46" s="66"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="106">
+      <c r="E46" s="105">
         <v>45955</v>
       </c>
-      <c r="F46" s="106">
+      <c r="F46" s="105">
         <v>45964</v>
       </c>
-      <c r="G46" s="106">
+      <c r="G46" s="105">
         <v>45964</v>
       </c>
-      <c r="H46" s="97">
+      <c r="H46" s="96">
         <f>SUM(H47:H49)</f>
         <v>50</v>
       </c>
-      <c r="I46" s="88">
+      <c r="I46" s="87">
         <f>SUM(I47:I49)</f>
         <v>75000</v>
       </c>
-      <c r="J46" s="81">
+      <c r="J46" s="80">
         <f t="shared" si="1"/>
         <v>3750000</v>
       </c>
-      <c r="K46" s="108">
+      <c r="K46" s="107">
         <f>SUM(K47:K49)</f>
         <v>1</v>
       </c>
-      <c r="L46" s="108"/>
-      <c r="M46" s="88">
+      <c r="L46" s="107"/>
+      <c r="M46" s="87">
         <f>SUM(M47:M49)</f>
         <v>150000</v>
       </c>
-      <c r="N46" s="88">
+      <c r="N46" s="87">
         <v>800000</v>
       </c>
-      <c r="O46" s="88">
-        <v>200000</v>
-      </c>
-      <c r="P46" s="88">
-        <v>4900000</v>
-      </c>
-      <c r="Q46" s="81">
+      <c r="O46" s="87">
+        <v>100000</v>
+      </c>
+      <c r="P46" s="87">
+        <f>SUM(L46:O46,J46)</f>
+        <v>4800000</v>
+      </c>
+      <c r="Q46" s="80">
         <f t="shared" si="3"/>
-        <v>4900000</v>
-      </c>
-      <c r="R46" s="122">
-        <f t="shared" si="10"/>
+        <v>4800000</v>
+      </c>
+      <c r="R46" s="121">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S46" s="1"/>
@@ -5144,49 +5262,52 @@
     </row>
     <row r="47" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="58" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="68">
+      <c r="E47" s="67">
         <v>45955</v>
       </c>
-      <c r="F47" s="133">
+      <c r="F47" s="132">
         <v>45961</v>
       </c>
-      <c r="G47" s="133">
+      <c r="G47" s="132">
         <v>45961</v>
       </c>
-      <c r="H47" s="71">
+      <c r="H47" s="70">
         <v>20</v>
       </c>
-      <c r="I47" s="89">
+      <c r="I47" s="88">
         <v>25000</v>
       </c>
-      <c r="J47" s="81">
+      <c r="J47" s="80">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K47" s="33"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="54">
-        <f t="shared" si="9"/>
+      <c r="L47" s="88"/>
+      <c r="M47" s="53">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N47" s="34"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="124">
-        <v>500000</v>
-      </c>
-      <c r="Q47" s="81">
+      <c r="N47" s="34">
+        <v>200000</v>
+      </c>
+      <c r="O47" s="54"/>
+      <c r="P47" s="123">
+        <f>SUM(L47:O47,J47)</f>
+        <v>700000</v>
+      </c>
+      <c r="Q47" s="80">
         <f t="shared" si="3"/>
-        <v>500000</v>
-      </c>
-      <c r="R47" s="56">
-        <f t="shared" si="10"/>
+        <v>700000</v>
+      </c>
+      <c r="R47" s="55">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S47" s="1"/>
@@ -5214,54 +5335,57 @@
     </row>
     <row r="48" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="58" t="s">
         <v>76</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="68">
+      <c r="E48" s="67">
         <v>45957</v>
       </c>
-      <c r="F48" s="133">
+      <c r="F48" s="132">
         <v>45963</v>
       </c>
-      <c r="G48" s="133">
+      <c r="G48" s="132">
         <v>45963</v>
       </c>
-      <c r="H48" s="71">
+      <c r="H48" s="70">
         <v>20</v>
       </c>
-      <c r="I48" s="89">
+      <c r="I48" s="88">
         <v>25000</v>
       </c>
-      <c r="J48" s="81">
+      <c r="J48" s="80">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K48" s="33">
         <v>1</v>
       </c>
-      <c r="L48" s="89">
+      <c r="L48" s="88">
         <v>150000</v>
       </c>
-      <c r="M48" s="54">
-        <f t="shared" si="9"/>
+      <c r="M48" s="53">
+        <f t="shared" si="13"/>
         <v>150000</v>
       </c>
-      <c r="N48" s="34"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="124">
-        <v>650000</v>
-      </c>
-      <c r="Q48" s="81">
+      <c r="N48" s="34">
+        <v>500000</v>
+      </c>
+      <c r="O48" s="54"/>
+      <c r="P48" s="123">
+        <f t="shared" ref="P48:P49" si="17">SUM(L48:O48,J48)</f>
+        <v>1300000</v>
+      </c>
+      <c r="Q48" s="80">
         <f t="shared" si="3"/>
-        <v>650000</v>
-      </c>
-      <c r="R48" s="56">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1150000</v>
+      </c>
+      <c r="R48" s="55">
+        <f t="shared" si="14"/>
+        <v>-150000</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
@@ -5288,49 +5412,54 @@
     </row>
     <row r="49" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="58" t="s">
         <v>77</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="68">
+      <c r="E49" s="67">
         <v>45959</v>
       </c>
-      <c r="F49" s="133">
+      <c r="F49" s="132">
         <v>45964</v>
       </c>
-      <c r="G49" s="133">
+      <c r="G49" s="132">
         <v>45964</v>
       </c>
-      <c r="H49" s="71">
+      <c r="H49" s="70">
         <v>10</v>
       </c>
-      <c r="I49" s="89">
+      <c r="I49" s="88">
         <v>25000</v>
       </c>
-      <c r="J49" s="81">
+      <c r="J49" s="80">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="K49" s="33"/>
-      <c r="L49" s="89"/>
-      <c r="M49" s="54">
-        <f t="shared" si="9"/>
+      <c r="L49" s="88"/>
+      <c r="M49" s="53">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N49" s="34"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="124">
-        <v>250000</v>
-      </c>
-      <c r="Q49" s="81">
+      <c r="N49" s="34">
+        <v>100000</v>
+      </c>
+      <c r="O49" s="54">
+        <v>100000</v>
+      </c>
+      <c r="P49" s="123">
+        <f t="shared" si="17"/>
+        <v>450000</v>
+      </c>
+      <c r="Q49" s="80">
         <f t="shared" si="3"/>
-        <v>250000</v>
-      </c>
-      <c r="R49" s="56">
-        <f t="shared" si="10"/>
+        <v>450000</v>
+      </c>
+      <c r="R49" s="55">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S49" s="1"/>
@@ -5358,56 +5487,57 @@
     </row>
     <row r="50" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C50" s="73"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="74">
+      <c r="E50" s="73">
         <v>45961</v>
       </c>
-      <c r="F50" s="137">
+      <c r="F50" s="136">
         <v>45967</v>
       </c>
-      <c r="G50" s="137">
+      <c r="G50" s="136">
         <v>45967</v>
       </c>
-      <c r="H50" s="75">
+      <c r="H50" s="74">
         <f>SUM(H51:H53)</f>
         <v>30</v>
       </c>
-      <c r="I50" s="114">
+      <c r="I50" s="113">
         <f>SUM(I51:I53)</f>
         <v>75000</v>
       </c>
-      <c r="J50" s="81">
+      <c r="J50" s="80">
         <f t="shared" si="1"/>
         <v>2250000</v>
       </c>
-      <c r="K50" s="77">
+      <c r="K50" s="76">
         <f>SUM(K51:K53)</f>
         <v>1</v>
       </c>
-      <c r="L50" s="77"/>
-      <c r="M50" s="76">
+      <c r="L50" s="76"/>
+      <c r="M50" s="75">
         <f>SUM(M51:M53)</f>
         <v>100000</v>
       </c>
-      <c r="N50" s="78">
+      <c r="N50" s="77">
         <v>200000</v>
       </c>
-      <c r="O50" s="79">
+      <c r="O50" s="78">
         <v>100000</v>
       </c>
-      <c r="P50" s="125">
+      <c r="P50" s="124">
+        <f>SUM(L50:O50,J50)</f>
         <v>2650000</v>
       </c>
-      <c r="Q50" s="81">
+      <c r="Q50" s="80">
         <f t="shared" si="3"/>
         <v>2650000</v>
       </c>
-      <c r="R50" s="80">
-        <f t="shared" si="10"/>
+      <c r="R50" s="79">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S50" s="1"/>
@@ -5435,49 +5565,54 @@
     </row>
     <row r="51" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
-      <c r="B51" s="59" t="s">
+      <c r="B51" s="58" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="68">
+      <c r="E51" s="67">
         <v>45961</v>
       </c>
-      <c r="F51" s="133">
+      <c r="F51" s="132">
         <v>45965</v>
       </c>
-      <c r="G51" s="133">
+      <c r="G51" s="132">
         <v>45965</v>
       </c>
-      <c r="H51" s="71">
+      <c r="H51" s="70">
         <v>10</v>
       </c>
-      <c r="I51" s="89">
+      <c r="I51" s="88">
         <v>25000</v>
       </c>
-      <c r="J51" s="81">
+      <c r="J51" s="80">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="K51" s="33"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="54">
-        <f t="shared" si="9"/>
+      <c r="L51" s="88"/>
+      <c r="M51" s="53">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N51" s="34"/>
-      <c r="O51" s="55"/>
-      <c r="P51" s="124">
-        <v>250000</v>
-      </c>
-      <c r="Q51" s="81">
+      <c r="N51" s="34">
+        <v>50000</v>
+      </c>
+      <c r="O51" s="54">
+        <v>50000</v>
+      </c>
+      <c r="P51" s="123">
+        <f>SUM(L51:O51,J51)</f>
+        <v>350000</v>
+      </c>
+      <c r="Q51" s="80">
         <f t="shared" si="3"/>
-        <v>250000</v>
-      </c>
-      <c r="R51" s="56">
-        <f t="shared" si="10"/>
+        <v>350000</v>
+      </c>
+      <c r="R51" s="55">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S51" s="1"/>
@@ -5505,54 +5640,59 @@
     </row>
     <row r="52" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="58" t="s">
         <v>80</v>
       </c>
       <c r="C52" s="28"/>
       <c r="D52" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="68">
+      <c r="E52" s="67">
         <v>45963</v>
       </c>
-      <c r="F52" s="133">
+      <c r="F52" s="132">
         <v>45966</v>
       </c>
-      <c r="G52" s="133">
+      <c r="G52" s="132">
         <v>45966</v>
       </c>
-      <c r="H52" s="71">
+      <c r="H52" s="70">
         <v>10</v>
       </c>
-      <c r="I52" s="89">
+      <c r="I52" s="88">
         <v>25000</v>
       </c>
-      <c r="J52" s="81">
+      <c r="J52" s="80">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="K52" s="33">
         <v>1</v>
       </c>
-      <c r="L52" s="89">
+      <c r="L52" s="88">
         <v>100000</v>
       </c>
-      <c r="M52" s="54">
-        <f t="shared" si="9"/>
+      <c r="M52" s="53">
+        <f t="shared" si="13"/>
         <v>100000</v>
       </c>
-      <c r="N52" s="34"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="124">
-        <v>350000</v>
-      </c>
-      <c r="Q52" s="81">
+      <c r="N52" s="34">
+        <v>50000</v>
+      </c>
+      <c r="O52" s="54">
+        <v>50000</v>
+      </c>
+      <c r="P52" s="123">
+        <f t="shared" ref="P52:P53" si="18">SUM(L52:O52,J52)</f>
+        <v>550000</v>
+      </c>
+      <c r="Q52" s="80">
         <f t="shared" si="3"/>
-        <v>350000</v>
-      </c>
-      <c r="R52" s="56">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <v>450000</v>
+      </c>
+      <c r="R52" s="55">
+        <f t="shared" si="14"/>
+        <v>-100000</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
@@ -5579,49 +5719,52 @@
     </row>
     <row r="53" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="59" t="s">
+      <c r="B53" s="58" t="s">
         <v>81</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="68">
+      <c r="E53" s="67">
         <v>45965</v>
       </c>
-      <c r="F53" s="133">
+      <c r="F53" s="132">
         <v>45967</v>
       </c>
-      <c r="G53" s="133">
+      <c r="G53" s="132">
         <v>45967</v>
       </c>
-      <c r="H53" s="71">
+      <c r="H53" s="70">
         <v>10</v>
       </c>
-      <c r="I53" s="89">
+      <c r="I53" s="88">
         <v>25000</v>
       </c>
-      <c r="J53" s="81">
+      <c r="J53" s="80">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="K53" s="33"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="54">
-        <f t="shared" si="9"/>
+      <c r="L53" s="88"/>
+      <c r="M53" s="53">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N53" s="34"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="124">
-        <v>250000</v>
-      </c>
-      <c r="Q53" s="81">
+      <c r="N53" s="34">
+        <v>100000</v>
+      </c>
+      <c r="O53" s="54"/>
+      <c r="P53" s="123">
+        <f t="shared" si="18"/>
+        <v>350000</v>
+      </c>
+      <c r="Q53" s="80">
         <f t="shared" si="3"/>
-        <v>250000</v>
-      </c>
-      <c r="R53" s="56">
-        <f t="shared" si="10"/>
+        <v>350000</v>
+      </c>
+      <c r="R53" s="55">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AI53" s="1"/>
@@ -5638,10 +5781,10 @@
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="107"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="46"/>
-      <c r="H54" s="38"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="37"/>
       <c r="I54" s="30"/>
       <c r="J54" s="32">
         <f>J5+J11+J21+J31+J35+J38+J42+J46+J50</f>
@@ -5654,19 +5797,22 @@
         <v>1200000</v>
       </c>
       <c r="N54" s="32">
-        <f>SUM(N4:N53)</f>
+        <f>N5+N11+N21+N31+N35+N38+N42+N46+N50</f>
         <v>5350000</v>
       </c>
-      <c r="O54" s="36">
-        <f>SUM(O4:O53)</f>
-        <v>1340000</v>
-      </c>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="40">
+      <c r="O54" s="32">
+        <f>O5+O11+O21+O31+O35+O38+O42+O46+O50</f>
+        <v>940000</v>
+      </c>
+      <c r="P54" s="42">
+        <f>P50+P46+P42+P38+P35+P31+P21+P11+P5</f>
+        <v>151000000</v>
+      </c>
+      <c r="Q54" s="39">
         <f>SUM(J54:O54)</f>
-        <v>151400000</v>
-      </c>
-      <c r="R54" s="40" cm="1">
+        <v>151000000</v>
+      </c>
+      <c r="R54" s="39" cm="1">
         <f t="array" ref="R54:AH54">A54:Q54+'BLANK - Simple Project Budget'!C76</f>
         <v>0</v>
       </c>
@@ -5710,13 +5856,13 @@
         <v>5350000</v>
       </c>
       <c r="AF54" s="2">
-        <v>1340000</v>
+        <v>940000</v>
       </c>
       <c r="AG54" s="2">
-        <v>0</v>
+        <v>151000000</v>
       </c>
       <c r="AH54" s="2">
-        <v>151400000</v>
+        <v>151000000</v>
       </c>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>

--- a/Presupuesto de Proyecto.xlsx
+++ b/Presupuesto de Proyecto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016B9FA4-1868-4F36-9E36-EC78C5291EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F15DE8-73A5-4424-8CB9-35FA2081C048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BLANK - Simple Project Budget" sheetId="6" r:id="rId1"/>
@@ -39,36 +39,11 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,7 +317,7 @@
     <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -470,6 +445,13 @@
       <color theme="0"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1117,7 +1099,6 @@
     <xf numFmtId="170" fontId="19" fillId="23" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="23" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -1237,7 +1218,6 @@
     <xf numFmtId="167" fontId="19" fillId="17" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="169" fontId="17" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -1271,6 +1251,21 @@
     <xf numFmtId="164" fontId="5" fillId="23" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="19" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1292,21 +1287,8 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="5" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="19" fillId="24" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="20" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="20" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
@@ -1527,7 +1509,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Risk Assessment &amp; Control"/>
@@ -1540,7 +1522,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Maintenance Work Order"/>
@@ -1884,30 +1866,30 @@
   </sheetPr>
   <dimension ref="A1:AN414"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="61.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.09765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="61.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.8984375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.8984375" style="2" customWidth="1"/>
+    <col min="12" max="13" width="12.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.19921875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="15.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.09765625" style="2" customWidth="1"/>
     <col min="20" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
@@ -1955,7 +1937,7 @@
       <c r="AM1" s="1"/>
       <c r="AN1" s="1"/>
     </row>
-    <row r="2" spans="1:40" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="31" t="s">
         <v>18</v>
@@ -1965,25 +1947,25 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="43"/>
-      <c r="H2" s="125" t="s">
+      <c r="H2" s="128" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126" t="s">
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="129" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="126"/>
-      <c r="M2" s="126"/>
-      <c r="N2" s="130" t="s">
+      <c r="L2" s="129"/>
+      <c r="M2" s="129"/>
+      <c r="N2" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="131"/>
-      <c r="P2" s="127" t="s">
+      <c r="O2" s="134"/>
+      <c r="P2" s="130" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="128"/>
-      <c r="R2" s="129"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="132"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -2007,7 +1989,7 @@
       <c r="AM2" s="4"/>
       <c r="AN2" s="4"/>
     </row>
-    <row r="3" spans="1:40" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" s="5" customFormat="1" ht="37.799999999999997" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="26" t="s">
         <v>23</v>
@@ -2083,7 +2065,7 @@
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
     </row>
-    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="27" t="s">
         <v>1</v>
@@ -2127,60 +2109,59 @@
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="B5" s="56" t="s">
         <v>41</v>
       </c>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
-      <c r="E5" s="97">
+      <c r="E5" s="96">
         <v>45877</v>
       </c>
-      <c r="F5" s="97">
+      <c r="F5" s="96">
         <v>45877</v>
       </c>
-      <c r="G5" s="97">
+      <c r="G5" s="96">
         <v>45910</v>
       </c>
-      <c r="H5" s="89">
+      <c r="H5" s="88">
         <f>SUM(H6:H10)</f>
         <v>50</v>
       </c>
-      <c r="I5" s="80">
+      <c r="I5" s="79">
         <f>SUM(I6:I10)</f>
         <v>137000</v>
       </c>
-      <c r="J5" s="80">
+      <c r="J5" s="79">
         <f>H5*I5</f>
         <v>6850000</v>
       </c>
-      <c r="K5" s="122">
+      <c r="K5" s="120">
         <f>SUM(K6:K10)</f>
         <v>1</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80">
+      <c r="L5" s="79"/>
+      <c r="M5" s="79">
         <f>SUM(M6:M10)</f>
         <v>150000</v>
       </c>
-      <c r="N5" s="80">
+      <c r="N5" s="79">
         <v>250000</v>
       </c>
-      <c r="O5" s="80">
+      <c r="O5" s="79">
         <v>100000</v>
       </c>
-      <c r="P5" s="80">
+      <c r="P5" s="79">
         <f>J5+M5+N5+O5</f>
         <v>7350000</v>
       </c>
-      <c r="Q5" s="80">
-        <f>J5+M5+O5+N5</f>
-        <v>7350000</v>
-      </c>
-      <c r="R5" s="114">
+      <c r="Q5" s="79">
+        <v>6845000</v>
+      </c>
+      <c r="R5" s="112">
         <f t="shared" ref="R5:R13" si="0">Q5-P5</f>
-        <v>0</v>
+        <v>-505000</v>
       </c>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
@@ -2205,7 +2186,7 @@
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
     </row>
-    <row r="6" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="57" t="s">
         <v>82</v>
@@ -2226,17 +2207,17 @@
       <c r="H6" s="70">
         <v>10</v>
       </c>
-      <c r="I6" s="88">
+      <c r="I6" s="87">
         <v>30000</v>
       </c>
-      <c r="J6" s="80">
+      <c r="J6" s="79">
         <f t="shared" ref="J6:J53" si="1">H6*I6</f>
         <v>300000</v>
       </c>
       <c r="K6" s="33">
         <v>0</v>
       </c>
-      <c r="L6" s="88">
+      <c r="L6" s="87">
         <v>0</v>
       </c>
       <c r="M6" s="53">
@@ -2249,17 +2230,16 @@
       <c r="O6" s="54">
         <v>50000</v>
       </c>
-      <c r="P6" s="123">
+      <c r="P6" s="121">
         <f>J6+L6+M6+N6+O6</f>
         <v>350000</v>
       </c>
-      <c r="Q6" s="80">
-        <f t="shared" ref="Q6:Q53" si="3">J6+M6+O6+N6</f>
-        <v>350000</v>
+      <c r="Q6" s="79">
+        <v>300000</v>
       </c>
       <c r="R6" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-50000</v>
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
@@ -2284,7 +2264,7 @@
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
     </row>
-    <row r="7" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="58" t="s">
         <v>42</v>
@@ -2305,27 +2285,27 @@
       <c r="H7" s="70">
         <v>10</v>
       </c>
-      <c r="I7" s="88">
+      <c r="I7" s="87">
         <v>25000</v>
       </c>
-      <c r="J7" s="80">
+      <c r="J7" s="79">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="K7" s="33"/>
-      <c r="L7" s="88"/>
+      <c r="L7" s="87"/>
       <c r="M7" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N7" s="34"/>
       <c r="O7" s="54"/>
-      <c r="P7" s="123">
-        <f t="shared" ref="P7:P10" si="4">J7+L7+M7+N7+O7</f>
+      <c r="P7" s="121">
+        <f t="shared" ref="P7:P10" si="3">J7+L7+M7+N7+O7</f>
         <v>250000</v>
       </c>
-      <c r="Q7" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q7" s="79">
+        <f t="shared" ref="Q6:Q53" si="4">J7+M7+O7+N7</f>
         <v>250000</v>
       </c>
       <c r="R7" s="55">
@@ -2355,7 +2335,7 @@
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
     </row>
-    <row r="8" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="58" t="s">
         <v>43</v>
@@ -2376,17 +2356,17 @@
       <c r="H8" s="70">
         <v>10</v>
       </c>
-      <c r="I8" s="88">
+      <c r="I8" s="87">
         <v>25000</v>
       </c>
-      <c r="J8" s="80">
+      <c r="J8" s="79">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="K8" s="33">
         <v>1</v>
       </c>
-      <c r="L8" s="88">
+      <c r="L8" s="87">
         <v>150000</v>
       </c>
       <c r="M8" s="53">
@@ -2397,12 +2377,12 @@
         <v>150000</v>
       </c>
       <c r="O8" s="54"/>
-      <c r="P8" s="123">
+      <c r="P8" s="121">
+        <f t="shared" si="3"/>
+        <v>700000</v>
+      </c>
+      <c r="Q8" s="79">
         <f t="shared" si="4"/>
-        <v>700000</v>
-      </c>
-      <c r="Q8" s="80">
-        <f t="shared" si="3"/>
         <v>550000</v>
       </c>
       <c r="R8" s="55">
@@ -2432,7 +2412,7 @@
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
     </row>
-    <row r="9" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="58" t="s">
         <v>83</v>
@@ -2453,15 +2433,15 @@
       <c r="H9" s="70">
         <v>10</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I9" s="87">
         <v>27000</v>
       </c>
-      <c r="J9" s="80">
+      <c r="J9" s="79">
         <f t="shared" ref="J9" si="5">H9*I9</f>
         <v>270000</v>
       </c>
       <c r="K9" s="33"/>
-      <c r="L9" s="88"/>
+      <c r="L9" s="87"/>
       <c r="M9" s="53">
         <f>K9*L9</f>
         <v>0</v>
@@ -2470,16 +2450,16 @@
       <c r="O9" s="54">
         <v>50000</v>
       </c>
-      <c r="P9" s="123">
+      <c r="P9" s="121">
         <f>J9+L9+M9+N9+O9</f>
         <v>320000</v>
       </c>
-      <c r="Q9" s="80">
-        <v>400000</v>
+      <c r="Q9" s="79">
+        <v>300000</v>
       </c>
       <c r="R9" s="55">
         <f>Q9-P9</f>
-        <v>80000</v>
+        <v>-20000</v>
       </c>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -2504,7 +2484,7 @@
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
     </row>
-    <row r="10" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="58" t="s">
         <v>44</v>
@@ -2525,15 +2505,15 @@
       <c r="H10" s="70">
         <v>10</v>
       </c>
-      <c r="I10" s="88">
+      <c r="I10" s="87">
         <v>30000</v>
       </c>
-      <c r="J10" s="80">
+      <c r="J10" s="79">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
       <c r="K10" s="33"/>
-      <c r="L10" s="88"/>
+      <c r="L10" s="87"/>
       <c r="M10" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2542,12 +2522,12 @@
         <v>100000</v>
       </c>
       <c r="O10" s="54"/>
-      <c r="P10" s="123">
+      <c r="P10" s="121">
+        <f t="shared" si="3"/>
+        <v>400000</v>
+      </c>
+      <c r="Q10" s="79">
         <f t="shared" si="4"/>
-        <v>400000</v>
-      </c>
-      <c r="Q10" s="80">
-        <f t="shared" si="3"/>
         <v>400000</v>
       </c>
       <c r="R10" s="55">
@@ -2577,7 +2557,7 @@
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
     </row>
-    <row r="11" spans="1:40" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="59" t="s">
         <v>45</v>
@@ -2586,53 +2566,51 @@
       <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="98">
+      <c r="E11" s="97">
         <v>45885</v>
       </c>
-      <c r="F11" s="98">
+      <c r="F11" s="97">
         <v>45918</v>
       </c>
-      <c r="G11" s="98">
+      <c r="G11" s="97">
         <v>45918</v>
       </c>
-      <c r="H11" s="90">
+      <c r="H11" s="89">
         <f>SUM(H12:H14)+H15+H18</f>
         <v>160</v>
       </c>
-      <c r="I11" s="81" cm="1">
-        <f t="array" ref="I11">SUM(I18+I15+I12:I14)</f>
-        <v>402000</v>
-      </c>
-      <c r="J11" s="80">
+      <c r="I11" s="80">
+        <v>165000</v>
+      </c>
+      <c r="J11" s="79">
         <f>H11*I11</f>
-        <v>64320000</v>
-      </c>
-      <c r="K11" s="112">
+        <v>26400000</v>
+      </c>
+      <c r="K11" s="111">
         <f>SUM(K12:K20)</f>
         <v>2</v>
       </c>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81">
+      <c r="L11" s="80"/>
+      <c r="M11" s="80">
         <f>SUM(M12:M20)</f>
         <v>400000</v>
       </c>
-      <c r="N11" s="81">
+      <c r="N11" s="80">
         <v>800000</v>
       </c>
-      <c r="O11" s="81">
+      <c r="O11" s="80">
         <v>150000</v>
       </c>
-      <c r="P11" s="81">
+      <c r="P11" s="80">
         <f>J11+M11+N11+O11</f>
-        <v>65670000</v>
-      </c>
-      <c r="Q11" s="80">
-        <f t="shared" si="3"/>
-        <v>65670000</v>
-      </c>
-      <c r="R11" s="115">
+        <v>27750000</v>
+      </c>
+      <c r="Q11" s="79">
+        <v>25550000</v>
+      </c>
+      <c r="R11" s="113">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2200000</v>
       </c>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
@@ -2657,7 +2635,7 @@
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
     </row>
-    <row r="12" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="58" t="s">
         <v>46</v>
@@ -2678,15 +2656,15 @@
       <c r="H12" s="70">
         <v>30</v>
       </c>
-      <c r="I12" s="88">
+      <c r="I12" s="87">
         <v>25000</v>
       </c>
-      <c r="J12" s="80">
+      <c r="J12" s="79">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="K12" s="33"/>
-      <c r="L12" s="88"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2697,12 +2675,12 @@
       <c r="O12" s="54">
         <v>50000</v>
       </c>
-      <c r="P12" s="123">
+      <c r="P12" s="121">
         <f>SUM(L12:O12,J12)</f>
         <v>1000000</v>
       </c>
-      <c r="Q12" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q12" s="79">
+        <f t="shared" si="4"/>
         <v>1000000</v>
       </c>
       <c r="R12" s="55">
@@ -2732,7 +2710,7 @@
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
     </row>
-    <row r="13" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="58" t="s">
         <v>47</v>
@@ -2753,15 +2731,15 @@
       <c r="H13" s="70">
         <v>20</v>
       </c>
-      <c r="I13" s="88">
+      <c r="I13" s="87">
         <v>25000</v>
       </c>
-      <c r="J13" s="80">
+      <c r="J13" s="79">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K13" s="33"/>
-      <c r="L13" s="88"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="53">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -2770,12 +2748,12 @@
         <v>100000</v>
       </c>
       <c r="O13" s="54"/>
-      <c r="P13" s="123">
+      <c r="P13" s="121">
         <f t="shared" ref="P13:P20" si="6">SUM(L13:O13,J13)</f>
         <v>600000</v>
       </c>
-      <c r="Q13" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q13" s="79">
+        <f t="shared" si="4"/>
         <v>600000</v>
       </c>
       <c r="R13" s="55">
@@ -2805,7 +2783,7 @@
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
     </row>
-    <row r="14" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="58" t="s">
         <v>84</v>
@@ -2826,15 +2804,15 @@
       <c r="H14" s="70">
         <v>40</v>
       </c>
-      <c r="I14" s="88">
+      <c r="I14" s="87">
         <v>22000</v>
       </c>
-      <c r="J14" s="80">
+      <c r="J14" s="79">
         <f t="shared" si="1"/>
         <v>880000</v>
       </c>
       <c r="K14" s="33"/>
-      <c r="L14" s="88"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="53">
         <f>K14*L14</f>
         <v>0</v>
@@ -2845,17 +2823,16 @@
       <c r="O14" s="54">
         <v>100000</v>
       </c>
-      <c r="P14" s="123">
+      <c r="P14" s="121">
         <f t="shared" si="6"/>
         <v>1130000</v>
       </c>
-      <c r="Q14" s="80">
-        <f t="shared" si="3"/>
-        <v>1130000</v>
+      <c r="Q14" s="79">
+        <v>1000000</v>
       </c>
       <c r="R14" s="55">
         <f t="shared" ref="R14:R27" si="7">Q14-P14</f>
-        <v>0</v>
+        <v>-130000</v>
       </c>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
@@ -2880,7 +2857,7 @@
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
     </row>
-    <row r="15" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="57" t="s">
         <v>48</v>
@@ -2902,18 +2879,18 @@
         <f>SUM(H16:H17)</f>
         <v>30</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I15" s="87">
         <f>SUM(I16:I17)</f>
         <v>55000</v>
       </c>
-      <c r="J15" s="80">
+      <c r="J15" s="79">
         <f t="shared" si="1"/>
         <v>1650000</v>
       </c>
       <c r="K15" s="33">
         <v>1</v>
       </c>
-      <c r="L15" s="88">
+      <c r="L15" s="87">
         <v>250000</v>
       </c>
       <c r="M15" s="53">
@@ -2924,12 +2901,12 @@
         <v>100000</v>
       </c>
       <c r="O15" s="54"/>
-      <c r="P15" s="123">
+      <c r="P15" s="121">
         <f t="shared" si="6"/>
         <v>2250000</v>
       </c>
-      <c r="Q15" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q15" s="79">
+        <f t="shared" si="4"/>
         <v>2000000</v>
       </c>
       <c r="R15" s="55">
@@ -2959,7 +2936,7 @@
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
     </row>
-    <row r="16" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="58" t="s">
         <v>49</v>
@@ -2980,27 +2957,27 @@
       <c r="H16" s="70">
         <v>10</v>
       </c>
-      <c r="I16" s="88">
+      <c r="I16" s="87">
         <v>30000</v>
       </c>
-      <c r="J16" s="80">
+      <c r="J16" s="79">
         <f t="shared" si="1"/>
         <v>300000</v>
       </c>
       <c r="K16" s="33"/>
-      <c r="L16" s="88"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="53">
         <f t="shared" ref="M16:M27" si="8">K16*L16</f>
         <v>0</v>
       </c>
       <c r="N16" s="34"/>
       <c r="O16" s="54"/>
-      <c r="P16" s="123">
+      <c r="P16" s="121">
         <f t="shared" si="6"/>
         <v>300000</v>
       </c>
-      <c r="Q16" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q16" s="79">
+        <f t="shared" si="4"/>
         <v>300000</v>
       </c>
       <c r="R16" s="55">
@@ -3030,7 +3007,7 @@
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
     </row>
-    <row r="17" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="58" t="s">
         <v>50</v>
@@ -3051,27 +3028,27 @@
       <c r="H17" s="70">
         <v>20</v>
       </c>
-      <c r="I17" s="88">
+      <c r="I17" s="87">
         <v>25000</v>
       </c>
-      <c r="J17" s="80">
+      <c r="J17" s="79">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K17" s="33"/>
-      <c r="L17" s="88"/>
+      <c r="L17" s="87"/>
       <c r="M17" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="54"/>
-      <c r="P17" s="123">
+      <c r="P17" s="121">
         <f t="shared" si="6"/>
         <v>500000</v>
       </c>
-      <c r="Q17" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q17" s="79">
+        <f t="shared" si="4"/>
         <v>500000</v>
       </c>
       <c r="R17" s="55">
@@ -3101,7 +3078,7 @@
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
     </row>
-    <row r="18" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="57" t="s">
         <v>51</v>
@@ -3123,18 +3100,18 @@
         <f>SUM(H19:H20)</f>
         <v>40</v>
       </c>
-      <c r="I18" s="88">
+      <c r="I18" s="87">
         <f>SUM(I19:I20)</f>
         <v>55000</v>
       </c>
-      <c r="J18" s="80">
+      <c r="J18" s="79">
         <f t="shared" si="1"/>
         <v>2200000</v>
       </c>
       <c r="K18" s="33">
         <v>1</v>
       </c>
-      <c r="L18" s="88">
+      <c r="L18" s="87">
         <v>150000</v>
       </c>
       <c r="M18" s="53">
@@ -3145,12 +3122,12 @@
         <v>100000</v>
       </c>
       <c r="O18" s="54"/>
-      <c r="P18" s="123">
+      <c r="P18" s="121">
         <f t="shared" si="6"/>
         <v>2600000</v>
       </c>
-      <c r="Q18" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q18" s="79">
+        <f t="shared" si="4"/>
         <v>2450000</v>
       </c>
       <c r="R18" s="55">
@@ -3180,7 +3157,7 @@
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
     </row>
-    <row r="19" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="58" t="s">
         <v>52</v>
@@ -3201,15 +3178,15 @@
       <c r="H19" s="70">
         <v>20</v>
       </c>
-      <c r="I19" s="88">
+      <c r="I19" s="87">
         <v>30000</v>
       </c>
-      <c r="J19" s="80">
+      <c r="J19" s="79">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="K19" s="33"/>
-      <c r="L19" s="88"/>
+      <c r="L19" s="87"/>
       <c r="M19" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3218,12 +3195,12 @@
         <v>100000</v>
       </c>
       <c r="O19" s="54"/>
-      <c r="P19" s="123">
+      <c r="P19" s="121">
         <f t="shared" si="6"/>
         <v>700000</v>
       </c>
-      <c r="Q19" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q19" s="79">
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="R19" s="55">
@@ -3253,7 +3230,7 @@
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
     </row>
-    <row r="20" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="58" t="s">
         <v>53</v>
@@ -3274,15 +3251,15 @@
       <c r="H20" s="70">
         <v>20</v>
       </c>
-      <c r="I20" s="88">
+      <c r="I20" s="87">
         <v>25000</v>
       </c>
-      <c r="J20" s="80">
+      <c r="J20" s="79">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K20" s="33"/>
-      <c r="L20" s="88"/>
+      <c r="L20" s="87"/>
       <c r="M20" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3291,12 +3268,12 @@
         <v>50000</v>
       </c>
       <c r="O20" s="54"/>
-      <c r="P20" s="123">
+      <c r="P20" s="121">
         <f t="shared" si="6"/>
         <v>550000</v>
       </c>
-      <c r="Q20" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q20" s="79">
+        <f t="shared" si="4"/>
         <v>550000</v>
       </c>
       <c r="R20" s="55">
@@ -3326,7 +3303,7 @@
       <c r="AM20" s="4"/>
       <c r="AN20" s="4"/>
     </row>
-    <row r="21" spans="1:40" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="60" t="s">
         <v>54</v>
@@ -3335,53 +3312,51 @@
       <c r="D21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="99">
+      <c r="E21" s="98">
         <v>45914</v>
       </c>
-      <c r="F21" s="99">
+      <c r="F21" s="98">
         <v>45936</v>
       </c>
-      <c r="G21" s="99">
+      <c r="G21" s="98">
         <v>45936</v>
       </c>
-      <c r="H21" s="91">
+      <c r="H21" s="90">
         <f>SUM(H22:H24)+H25+H28</f>
         <v>180</v>
       </c>
-      <c r="I21" s="82">
-        <f>SUM(I22:I24)+I25+I28</f>
-        <v>205000</v>
-      </c>
-      <c r="J21" s="80">
+      <c r="I21" s="81">
+        <v>170000</v>
+      </c>
+      <c r="J21" s="79">
         <f t="shared" si="1"/>
-        <v>36900000</v>
-      </c>
-      <c r="K21" s="111">
+        <v>30600000</v>
+      </c>
+      <c r="K21" s="110">
         <f>SUM(K22:K30)</f>
         <v>2</v>
       </c>
-      <c r="L21" s="82"/>
-      <c r="M21" s="82">
+      <c r="L21" s="81"/>
+      <c r="M21" s="81">
         <f>SUM(M22:M30)</f>
         <v>250000</v>
       </c>
-      <c r="N21" s="82">
+      <c r="N21" s="81">
         <v>1500000</v>
       </c>
-      <c r="O21" s="82">
+      <c r="O21" s="81">
         <v>200000</v>
       </c>
-      <c r="P21" s="82">
+      <c r="P21" s="81">
         <f>J21+M21+N21+O21</f>
-        <v>38850000</v>
-      </c>
-      <c r="Q21" s="80">
-        <f t="shared" si="3"/>
-        <v>38850000</v>
-      </c>
-      <c r="R21" s="116">
+        <v>32550000</v>
+      </c>
+      <c r="Q21" s="79">
+        <v>28700000</v>
+      </c>
+      <c r="R21" s="114">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3850000</v>
       </c>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
@@ -3406,7 +3381,7 @@
       <c r="AM21" s="4"/>
       <c r="AN21" s="4"/>
     </row>
-    <row r="22" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="58" t="s">
         <v>55</v>
@@ -3418,24 +3393,24 @@
       <c r="E22" s="67">
         <v>45914</v>
       </c>
-      <c r="F22" s="132">
+      <c r="F22" s="123">
         <v>45919</v>
       </c>
-      <c r="G22" s="132">
+      <c r="G22" s="123">
         <v>45919</v>
       </c>
       <c r="H22" s="70">
         <v>30</v>
       </c>
-      <c r="I22" s="88">
+      <c r="I22" s="87">
         <v>30000</v>
       </c>
-      <c r="J22" s="80">
+      <c r="J22" s="79">
         <f t="shared" si="1"/>
         <v>900000</v>
       </c>
       <c r="K22" s="33"/>
-      <c r="L22" s="88"/>
+      <c r="L22" s="87"/>
       <c r="M22" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3444,12 +3419,12 @@
       <c r="O22" s="54">
         <v>50000</v>
       </c>
-      <c r="P22" s="123">
+      <c r="P22" s="121">
         <f>SUM(K22:O22,J22)</f>
         <v>950000</v>
       </c>
-      <c r="Q22" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q22" s="79">
+        <f t="shared" si="4"/>
         <v>950000</v>
       </c>
       <c r="R22" s="55">
@@ -3479,7 +3454,7 @@
       <c r="AM22" s="4"/>
       <c r="AN22" s="4"/>
     </row>
-    <row r="23" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="58" t="s">
         <v>47</v>
@@ -3491,24 +3466,24 @@
       <c r="E23" s="67">
         <v>45915</v>
       </c>
-      <c r="F23" s="132">
+      <c r="F23" s="123">
         <v>45919</v>
       </c>
-      <c r="G23" s="132">
+      <c r="G23" s="123">
         <v>45919</v>
       </c>
       <c r="H23" s="70">
         <v>20</v>
       </c>
-      <c r="I23" s="88">
+      <c r="I23" s="87">
         <v>30000</v>
       </c>
-      <c r="J23" s="80">
+      <c r="J23" s="79">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="K23" s="33"/>
-      <c r="L23" s="88"/>
+      <c r="L23" s="87"/>
       <c r="M23" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3519,12 +3494,12 @@
       <c r="O23" s="54">
         <v>50000</v>
       </c>
-      <c r="P23" s="123">
+      <c r="P23" s="121">
         <f t="shared" ref="P23:P30" si="9">SUM(K23:O23,J23)</f>
         <v>700000</v>
       </c>
-      <c r="Q23" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q23" s="79">
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="R23" s="55">
@@ -3554,7 +3529,7 @@
       <c r="AM23" s="4"/>
       <c r="AN23" s="4"/>
     </row>
-    <row r="24" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="58" t="s">
         <v>56</v>
@@ -3566,26 +3541,26 @@
       <c r="E24" s="67">
         <v>45917</v>
       </c>
-      <c r="F24" s="132">
+      <c r="F24" s="123">
         <v>45929</v>
       </c>
-      <c r="G24" s="132">
+      <c r="G24" s="123">
         <v>45929</v>
       </c>
       <c r="H24" s="70">
         <v>30</v>
       </c>
-      <c r="I24" s="88">
+      <c r="I24" s="87">
         <v>25000</v>
       </c>
-      <c r="J24" s="80">
+      <c r="J24" s="79">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="K24" s="33">
         <v>1</v>
       </c>
-      <c r="L24" s="88">
+      <c r="L24" s="87">
         <v>100000</v>
       </c>
       <c r="M24" s="53">
@@ -3596,12 +3571,12 @@
         <v>600000</v>
       </c>
       <c r="O24" s="54"/>
-      <c r="P24" s="123">
+      <c r="P24" s="121">
         <f t="shared" si="9"/>
         <v>1550001</v>
       </c>
-      <c r="Q24" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q24" s="79">
+        <f t="shared" si="4"/>
         <v>1450000</v>
       </c>
       <c r="R24" s="55">
@@ -3631,7 +3606,7 @@
       <c r="AM24" s="4"/>
       <c r="AN24" s="4"/>
     </row>
-    <row r="25" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="57" t="s">
         <v>57</v>
@@ -3643,26 +3618,26 @@
       <c r="E25" s="66">
         <v>45919</v>
       </c>
-      <c r="F25" s="133">
+      <c r="F25" s="124">
         <v>45929</v>
       </c>
-      <c r="G25" s="133">
+      <c r="G25" s="124">
         <v>45929</v>
       </c>
       <c r="H25" s="70">
         <f>SUM(H26:H27)</f>
         <v>40</v>
       </c>
-      <c r="I25" s="88">
+      <c r="I25" s="87">
         <f>SUM(I26:I27)</f>
         <v>60000</v>
       </c>
-      <c r="J25" s="80">
+      <c r="J25" s="79">
         <f t="shared" si="1"/>
         <v>2400000</v>
       </c>
       <c r="K25" s="33"/>
-      <c r="L25" s="88"/>
+      <c r="L25" s="87"/>
       <c r="M25" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3671,12 +3646,12 @@
         <v>500000</v>
       </c>
       <c r="O25" s="54"/>
-      <c r="P25" s="123">
+      <c r="P25" s="121">
         <f t="shared" si="9"/>
         <v>2900000</v>
       </c>
-      <c r="Q25" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q25" s="79">
+        <f t="shared" si="4"/>
         <v>2900000</v>
       </c>
       <c r="R25" s="55">
@@ -3706,7 +3681,7 @@
       <c r="AM25" s="4"/>
       <c r="AN25" s="4"/>
     </row>
-    <row r="26" spans="1:40" s="5" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" s="5" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="58" t="s">
         <v>49</v>
@@ -3718,24 +3693,24 @@
       <c r="E26" s="67">
         <v>45919</v>
       </c>
-      <c r="F26" s="132">
+      <c r="F26" s="123">
         <v>45922</v>
       </c>
-      <c r="G26" s="132">
+      <c r="G26" s="123">
         <v>45922</v>
       </c>
       <c r="H26" s="70">
         <v>20</v>
       </c>
-      <c r="I26" s="88">
+      <c r="I26" s="87">
         <v>30000</v>
       </c>
-      <c r="J26" s="80">
+      <c r="J26" s="79">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="K26" s="33"/>
-      <c r="L26" s="88"/>
+      <c r="L26" s="87"/>
       <c r="M26" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3744,12 +3719,12 @@
       <c r="O26" s="54">
         <v>50000</v>
       </c>
-      <c r="P26" s="123">
+      <c r="P26" s="121">
         <f t="shared" si="9"/>
         <v>650000</v>
       </c>
-      <c r="Q26" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q26" s="79">
+        <f t="shared" si="4"/>
         <v>650000</v>
       </c>
       <c r="R26" s="55">
@@ -3779,7 +3754,7 @@
       <c r="AM26" s="4"/>
       <c r="AN26" s="4"/>
     </row>
-    <row r="27" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="58" t="s">
         <v>50</v>
@@ -3791,24 +3766,24 @@
       <c r="E27" s="69">
         <v>45923</v>
       </c>
-      <c r="F27" s="134">
+      <c r="F27" s="125">
         <v>45928</v>
       </c>
-      <c r="G27" s="134">
+      <c r="G27" s="125">
         <v>45928</v>
       </c>
       <c r="H27" s="70">
         <v>20</v>
       </c>
-      <c r="I27" s="88">
+      <c r="I27" s="87">
         <v>30000</v>
       </c>
-      <c r="J27" s="80">
+      <c r="J27" s="79">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="K27" s="33"/>
-      <c r="L27" s="88"/>
+      <c r="L27" s="87"/>
       <c r="M27" s="53">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -3817,12 +3792,12 @@
       <c r="O27" s="54">
         <v>50000</v>
       </c>
-      <c r="P27" s="123">
+      <c r="P27" s="121">
         <f t="shared" si="9"/>
         <v>650000</v>
       </c>
-      <c r="Q27" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q27" s="79">
+        <f t="shared" si="4"/>
         <v>650000</v>
       </c>
       <c r="R27" s="55">
@@ -3852,7 +3827,7 @@
       <c r="AM27" s="4"/>
       <c r="AN27" s="4"/>
     </row>
-    <row r="28" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
       <c r="B28" s="57" t="s">
         <v>58</v>
@@ -3864,28 +3839,28 @@
       <c r="E28" s="68">
         <v>45925</v>
       </c>
-      <c r="F28" s="135">
+      <c r="F28" s="126">
         <v>45936</v>
       </c>
-      <c r="G28" s="135">
+      <c r="G28" s="126">
         <v>45936</v>
       </c>
       <c r="H28" s="70">
         <f>SUM(H29:H30)</f>
         <v>60</v>
       </c>
-      <c r="I28" s="88">
+      <c r="I28" s="87">
         <f>SUM(I29:I30)</f>
         <v>60000</v>
       </c>
-      <c r="J28" s="80">
+      <c r="J28" s="79">
         <f t="shared" si="1"/>
         <v>3600000</v>
       </c>
       <c r="K28" s="33">
         <v>1</v>
       </c>
-      <c r="L28" s="88">
+      <c r="L28" s="87">
         <v>150000</v>
       </c>
       <c r="M28" s="53">
@@ -3896,12 +3871,12 @@
         <v>300000</v>
       </c>
       <c r="O28" s="54"/>
-      <c r="P28" s="123">
+      <c r="P28" s="121">
         <f t="shared" si="9"/>
         <v>4200001</v>
       </c>
-      <c r="Q28" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q28" s="79">
+        <f t="shared" si="4"/>
         <v>4050000</v>
       </c>
       <c r="R28" s="55">
@@ -3931,7 +3906,7 @@
       <c r="AM28" s="4"/>
       <c r="AN28" s="4"/>
     </row>
-    <row r="29" spans="1:40" s="5" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="4"/>
       <c r="B29" s="58" t="s">
         <v>52</v>
@@ -3943,36 +3918,36 @@
       <c r="E29" s="69">
         <v>45925</v>
       </c>
-      <c r="F29" s="134">
+      <c r="F29" s="125">
         <v>45936</v>
       </c>
-      <c r="G29" s="134">
+      <c r="G29" s="125">
         <v>45936</v>
       </c>
       <c r="H29" s="70">
         <v>30</v>
       </c>
-      <c r="I29" s="88">
+      <c r="I29" s="87">
         <v>30000</v>
       </c>
-      <c r="J29" s="80">
+      <c r="J29" s="79">
         <f t="shared" si="1"/>
         <v>900000</v>
       </c>
       <c r="K29" s="33"/>
-      <c r="L29" s="88"/>
+      <c r="L29" s="87"/>
       <c r="M29" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N29" s="34"/>
       <c r="O29" s="54"/>
-      <c r="P29" s="123">
+      <c r="P29" s="121">
         <f t="shared" si="9"/>
         <v>900000</v>
       </c>
-      <c r="Q29" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q29" s="79">
+        <f t="shared" si="4"/>
         <v>900000</v>
       </c>
       <c r="R29" s="55">
@@ -4002,7 +3977,7 @@
       <c r="AM29" s="4"/>
       <c r="AN29" s="4"/>
     </row>
-    <row r="30" spans="1:40" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" s="1" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="58" t="s">
         <v>53</v>
       </c>
@@ -4013,24 +3988,24 @@
       <c r="E30" s="69">
         <v>45930</v>
       </c>
-      <c r="F30" s="134">
+      <c r="F30" s="125">
         <v>45936</v>
       </c>
-      <c r="G30" s="134">
+      <c r="G30" s="125">
         <v>45936</v>
       </c>
       <c r="H30" s="70">
         <v>30</v>
       </c>
-      <c r="I30" s="88">
+      <c r="I30" s="87">
         <v>30000</v>
       </c>
-      <c r="J30" s="80">
+      <c r="J30" s="79">
         <f t="shared" si="1"/>
         <v>900000</v>
       </c>
       <c r="K30" s="33"/>
-      <c r="L30" s="88"/>
+      <c r="L30" s="87"/>
       <c r="M30" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -4039,12 +4014,12 @@
         <v>50000</v>
       </c>
       <c r="O30" s="54"/>
-      <c r="P30" s="123">
+      <c r="P30" s="121">
         <f t="shared" si="9"/>
         <v>950000</v>
       </c>
-      <c r="Q30" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q30" s="79">
+        <f t="shared" si="4"/>
         <v>950000</v>
       </c>
       <c r="R30" s="55">
@@ -4052,7 +4027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="61" t="s">
         <v>59</v>
@@ -4061,53 +4036,51 @@
       <c r="D31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="99">
         <v>45933</v>
       </c>
-      <c r="F31" s="100">
+      <c r="F31" s="99">
         <v>45942</v>
       </c>
-      <c r="G31" s="100">
+      <c r="G31" s="99">
         <v>45942</v>
       </c>
-      <c r="H31" s="92">
+      <c r="H31" s="91">
         <f>SUM(H32:H34)</f>
         <v>140</v>
       </c>
-      <c r="I31" s="83">
-        <f>SUM(I32:I34)</f>
-        <v>86000</v>
-      </c>
-      <c r="J31" s="80">
+      <c r="I31" s="82">
+        <v>186000</v>
+      </c>
+      <c r="J31" s="79">
         <f t="shared" si="1"/>
-        <v>12040000</v>
-      </c>
-      <c r="K31" s="110">
+        <v>26040000</v>
+      </c>
+      <c r="K31" s="109">
         <f>SUM(K32:K34)</f>
         <v>1</v>
       </c>
-      <c r="L31" s="110"/>
-      <c r="M31" s="83">
+      <c r="L31" s="109"/>
+      <c r="M31" s="82">
         <f>SUM(M32:M34)</f>
         <v>150000</v>
       </c>
-      <c r="N31" s="83">
+      <c r="N31" s="82">
         <v>700000</v>
       </c>
-      <c r="O31" s="83">
+      <c r="O31" s="82">
         <v>50000</v>
       </c>
-      <c r="P31" s="83">
+      <c r="P31" s="82">
         <f>J31+M31+N31+O31</f>
-        <v>12940000</v>
-      </c>
-      <c r="Q31" s="80">
-        <f t="shared" si="3"/>
-        <v>12940000</v>
-      </c>
-      <c r="R31" s="117">
+        <v>26940000</v>
+      </c>
+      <c r="Q31" s="79">
+        <v>22450000</v>
+      </c>
+      <c r="R31" s="115">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-4490000</v>
       </c>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -4132,7 +4105,7 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
     </row>
-    <row r="32" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="58" t="s">
         <v>60</v>
@@ -4144,24 +4117,24 @@
       <c r="E32" s="67">
         <v>45933</v>
       </c>
-      <c r="F32" s="132">
+      <c r="F32" s="123">
         <v>45938</v>
       </c>
-      <c r="G32" s="132">
+      <c r="G32" s="123">
         <v>45938</v>
       </c>
       <c r="H32" s="70">
         <v>60</v>
       </c>
-      <c r="I32" s="88">
+      <c r="I32" s="87">
         <v>28000</v>
       </c>
-      <c r="J32" s="80">
+      <c r="J32" s="79">
         <f t="shared" si="1"/>
         <v>1680000</v>
       </c>
       <c r="K32" s="33"/>
-      <c r="L32" s="88"/>
+      <c r="L32" s="87"/>
       <c r="M32" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -4172,12 +4145,12 @@
       <c r="O32" s="54">
         <v>50000</v>
       </c>
-      <c r="P32" s="123">
+      <c r="P32" s="121">
         <f>SUM(L32:O32,J32)</f>
         <v>2130000</v>
       </c>
-      <c r="Q32" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q32" s="79">
+        <f t="shared" si="4"/>
         <v>2130000</v>
       </c>
       <c r="R32" s="55">
@@ -4207,36 +4180,36 @@
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
     </row>
-    <row r="33" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="58" t="s">
         <v>61</v>
       </c>
       <c r="C33" s="28"/>
       <c r="D33" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" s="67">
         <v>45933</v>
       </c>
-      <c r="F33" s="132">
+      <c r="F33" s="123">
         <v>45940</v>
       </c>
-      <c r="G33" s="132">
+      <c r="G33" s="123">
         <v>45940</v>
       </c>
       <c r="H33" s="70">
         <v>40</v>
       </c>
-      <c r="I33" s="88">
+      <c r="I33" s="87">
         <v>30000</v>
       </c>
-      <c r="J33" s="80">
+      <c r="J33" s="79">
         <f t="shared" si="1"/>
         <v>1200000</v>
       </c>
       <c r="K33" s="33"/>
-      <c r="L33" s="88"/>
+      <c r="L33" s="87"/>
       <c r="M33" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -4245,12 +4218,12 @@
         <v>150000</v>
       </c>
       <c r="O33" s="54"/>
-      <c r="P33" s="123">
+      <c r="P33" s="121">
         <f t="shared" ref="P33:P34" si="12">SUM(L33:O33,J33)</f>
         <v>1350000</v>
       </c>
-      <c r="Q33" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q33" s="79">
+        <f t="shared" si="4"/>
         <v>1350000</v>
       </c>
       <c r="R33" s="55">
@@ -4280,7 +4253,7 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
     </row>
-    <row r="34" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="58" t="s">
         <v>62</v>
@@ -4292,26 +4265,26 @@
       <c r="E34" s="67">
         <v>45935</v>
       </c>
-      <c r="F34" s="132">
+      <c r="F34" s="123">
         <v>45942</v>
       </c>
-      <c r="G34" s="132">
+      <c r="G34" s="123">
         <v>45942</v>
       </c>
       <c r="H34" s="70">
         <v>40</v>
       </c>
-      <c r="I34" s="88">
+      <c r="I34" s="87">
         <v>28000</v>
       </c>
-      <c r="J34" s="80">
+      <c r="J34" s="79">
         <f t="shared" si="1"/>
         <v>1120000</v>
       </c>
       <c r="K34" s="33">
         <v>1</v>
       </c>
-      <c r="L34" s="88">
+      <c r="L34" s="87">
         <v>150000</v>
       </c>
       <c r="M34" s="53">
@@ -4322,12 +4295,12 @@
         <v>150000</v>
       </c>
       <c r="O34" s="54"/>
-      <c r="P34" s="123">
+      <c r="P34" s="121">
         <f t="shared" si="12"/>
         <v>1570000</v>
       </c>
-      <c r="Q34" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q34" s="79">
+        <f t="shared" si="4"/>
         <v>1420000</v>
       </c>
       <c r="R34" s="55">
@@ -4357,7 +4330,7 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
     </row>
-    <row r="35" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="62" t="s">
         <v>63</v>
@@ -4366,53 +4339,51 @@
       <c r="D35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="101">
+      <c r="E35" s="100">
         <v>45937</v>
       </c>
-      <c r="F35" s="101">
+      <c r="F35" s="100">
         <v>45948</v>
       </c>
-      <c r="G35" s="101">
+      <c r="G35" s="100">
         <v>45948</v>
       </c>
-      <c r="H35" s="93">
+      <c r="H35" s="92">
         <f>SUM(H36:H37)</f>
         <v>100</v>
       </c>
-      <c r="I35" s="84">
-        <f>SUM(I36:I37)</f>
-        <v>50000</v>
-      </c>
-      <c r="J35" s="80">
+      <c r="I35" s="83">
+        <v>100000</v>
+      </c>
+      <c r="J35" s="79">
         <f t="shared" si="1"/>
-        <v>5000000</v>
-      </c>
-      <c r="K35" s="109">
+        <v>10000000</v>
+      </c>
+      <c r="K35" s="108">
         <f>SUM(K36:K37)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84">
+      <c r="L35" s="83"/>
+      <c r="M35" s="83">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="N35" s="84">
+      <c r="N35" s="83">
         <v>400000</v>
       </c>
-      <c r="O35" s="84">
+      <c r="O35" s="83">
         <v>80000</v>
       </c>
-      <c r="P35" s="84">
+      <c r="P35" s="83">
         <f>J35+N35+O35+M35</f>
-        <v>5480000</v>
-      </c>
-      <c r="Q35" s="80">
-        <f t="shared" si="3"/>
-        <v>5480000</v>
-      </c>
-      <c r="R35" s="118">
+        <v>10480000</v>
+      </c>
+      <c r="Q35" s="79">
+        <v>8500000</v>
+      </c>
+      <c r="R35" s="116">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-1980000</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
@@ -4437,7 +4408,7 @@
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
     </row>
-    <row r="36" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="58" t="s">
         <v>64</v>
@@ -4449,24 +4420,24 @@
       <c r="E36" s="67">
         <v>45937</v>
       </c>
-      <c r="F36" s="132">
+      <c r="F36" s="123">
         <v>45946</v>
       </c>
-      <c r="G36" s="132">
+      <c r="G36" s="123">
         <v>45946</v>
       </c>
       <c r="H36" s="70">
         <v>50</v>
       </c>
-      <c r="I36" s="88">
+      <c r="I36" s="87">
         <v>25000</v>
       </c>
-      <c r="J36" s="80">
+      <c r="J36" s="79">
         <f t="shared" si="1"/>
         <v>1250000</v>
       </c>
       <c r="K36" s="33"/>
-      <c r="L36" s="88"/>
+      <c r="L36" s="87"/>
       <c r="M36" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -4477,12 +4448,12 @@
       <c r="O36" s="54">
         <v>80000</v>
       </c>
-      <c r="P36" s="123">
+      <c r="P36" s="121">
         <f>SUM(L36:O36,J36)</f>
         <v>1430000</v>
       </c>
-      <c r="Q36" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q36" s="79">
+        <f t="shared" si="4"/>
         <v>1430000</v>
       </c>
       <c r="R36" s="55">
@@ -4512,7 +4483,7 @@
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
     </row>
-    <row r="37" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="58" t="s">
         <v>65</v>
@@ -4524,24 +4495,24 @@
       <c r="E37" s="67">
         <v>45940</v>
       </c>
-      <c r="F37" s="132">
+      <c r="F37" s="123">
         <v>45948</v>
       </c>
-      <c r="G37" s="132">
+      <c r="G37" s="123">
         <v>45948</v>
       </c>
       <c r="H37" s="70">
         <v>50</v>
       </c>
-      <c r="I37" s="88">
+      <c r="I37" s="87">
         <v>25000</v>
       </c>
-      <c r="J37" s="80">
+      <c r="J37" s="79">
         <f t="shared" si="1"/>
         <v>1250000</v>
       </c>
       <c r="K37" s="33"/>
-      <c r="L37" s="88"/>
+      <c r="L37" s="87"/>
       <c r="M37" s="53">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -4550,12 +4521,12 @@
         <v>300000</v>
       </c>
       <c r="O37" s="54"/>
-      <c r="P37" s="123">
+      <c r="P37" s="121">
         <f>SUM(L37:O37,J37)</f>
         <v>1550000</v>
       </c>
-      <c r="Q37" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q37" s="79">
+        <f t="shared" si="4"/>
         <v>1550000</v>
       </c>
       <c r="R37" s="55">
@@ -4585,59 +4556,57 @@
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
     </row>
-    <row r="38" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="63" t="s">
         <v>66</v>
       </c>
       <c r="C38" s="63"/>
       <c r="D38" s="7"/>
-      <c r="E38" s="102">
+      <c r="E38" s="101">
         <v>45942</v>
       </c>
-      <c r="F38" s="102">
+      <c r="F38" s="101">
         <v>45954</v>
       </c>
-      <c r="G38" s="102">
+      <c r="G38" s="101">
         <v>45954</v>
       </c>
-      <c r="H38" s="94">
+      <c r="H38" s="93">
         <f>SUM(H39:H41)</f>
         <v>80</v>
       </c>
-      <c r="I38" s="85">
-        <f>SUM(I39:I41)</f>
-        <v>80000</v>
-      </c>
-      <c r="J38" s="80">
+      <c r="I38" s="84">
+        <v>150000</v>
+      </c>
+      <c r="J38" s="79">
         <f t="shared" si="1"/>
-        <v>6400000</v>
+        <v>12000000</v>
       </c>
       <c r="K38" s="63">
         <v>0</v>
       </c>
-      <c r="L38" s="85"/>
-      <c r="M38" s="85">
+      <c r="L38" s="84"/>
+      <c r="M38" s="84">
         <f t="shared" ref="M38:M53" si="13">K38*L38</f>
         <v>0</v>
       </c>
-      <c r="N38" s="85">
+      <c r="N38" s="84">
         <v>300000</v>
       </c>
-      <c r="O38" s="85">
+      <c r="O38" s="84">
         <v>100000</v>
       </c>
-      <c r="P38" s="85">
+      <c r="P38" s="84">
         <f>SUM(M38:O38,J38)</f>
-        <v>6800000</v>
-      </c>
-      <c r="Q38" s="80">
-        <f t="shared" si="3"/>
-        <v>6800000</v>
-      </c>
-      <c r="R38" s="119">
+        <v>12400000</v>
+      </c>
+      <c r="Q38" s="79">
+        <v>9540000</v>
+      </c>
+      <c r="R38" s="117">
         <f t="shared" ref="R38:R53" si="14">Q38-P38</f>
-        <v>0</v>
+        <v>-2860000</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
@@ -4662,36 +4631,36 @@
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
     </row>
-    <row r="39" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="58" t="s">
         <v>67</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E39" s="103">
+        <v>5</v>
+      </c>
+      <c r="E39" s="102">
         <v>45942</v>
       </c>
-      <c r="F39" s="132">
+      <c r="F39" s="123">
         <v>45951</v>
       </c>
-      <c r="G39" s="132">
+      <c r="G39" s="123">
         <v>45951</v>
       </c>
       <c r="H39" s="70">
         <v>30</v>
       </c>
-      <c r="I39" s="88">
+      <c r="I39" s="87">
         <v>25000</v>
       </c>
-      <c r="J39" s="80">
+      <c r="J39" s="79">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="K39" s="33"/>
-      <c r="L39" s="88"/>
+      <c r="L39" s="87"/>
       <c r="M39" s="53">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -4700,12 +4669,12 @@
         <v>150000</v>
       </c>
       <c r="O39" s="54"/>
-      <c r="P39" s="123">
+      <c r="P39" s="121">
         <f>SUM(L39:O39,J39)</f>
         <v>900000</v>
       </c>
-      <c r="Q39" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q39" s="79">
+        <f t="shared" si="4"/>
         <v>900000</v>
       </c>
       <c r="R39" s="55">
@@ -4735,36 +4704,36 @@
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
     </row>
-    <row r="40" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="58" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" s="67">
         <v>45945</v>
       </c>
-      <c r="F40" s="132">
+      <c r="F40" s="123">
         <v>45953</v>
       </c>
-      <c r="G40" s="132">
+      <c r="G40" s="123">
         <v>45953</v>
       </c>
       <c r="H40" s="70">
         <v>30</v>
       </c>
-      <c r="I40" s="88">
+      <c r="I40" s="87">
         <v>25000</v>
       </c>
-      <c r="J40" s="80">
+      <c r="J40" s="79">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="K40" s="33"/>
-      <c r="L40" s="88"/>
+      <c r="L40" s="87"/>
       <c r="M40" s="53">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -4775,12 +4744,12 @@
       <c r="O40" s="54">
         <v>100000</v>
       </c>
-      <c r="P40" s="123">
+      <c r="P40" s="121">
         <f t="shared" ref="P40:P41" si="15">SUM(L40:O40,J40)</f>
         <v>900000</v>
       </c>
-      <c r="Q40" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q40" s="79">
+        <f t="shared" si="4"/>
         <v>900000</v>
       </c>
       <c r="R40" s="55">
@@ -4810,36 +4779,36 @@
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
     </row>
-    <row r="41" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="58" t="s">
         <v>69</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E41" s="67">
         <v>45947</v>
       </c>
-      <c r="F41" s="132">
+      <c r="F41" s="123">
         <v>45954</v>
       </c>
-      <c r="G41" s="132">
+      <c r="G41" s="123">
         <v>45954</v>
       </c>
       <c r="H41" s="70">
         <v>20</v>
       </c>
-      <c r="I41" s="88">
+      <c r="I41" s="87">
         <v>30000</v>
       </c>
-      <c r="J41" s="80">
+      <c r="J41" s="79">
         <f t="shared" si="1"/>
         <v>600000</v>
       </c>
       <c r="K41" s="33"/>
-      <c r="L41" s="88"/>
+      <c r="L41" s="87"/>
       <c r="M41" s="53">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -4848,12 +4817,12 @@
         <v>100000</v>
       </c>
       <c r="O41" s="54"/>
-      <c r="P41" s="123">
+      <c r="P41" s="121">
         <f t="shared" si="15"/>
         <v>700000</v>
       </c>
-      <c r="Q41" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q41" s="79">
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="R41" s="55">
@@ -4883,58 +4852,58 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
     </row>
-    <row r="42" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="64" t="s">
         <v>70</v>
       </c>
       <c r="C42" s="64"/>
       <c r="D42" s="7"/>
-      <c r="E42" s="104">
+      <c r="E42" s="103">
         <v>45949</v>
       </c>
-      <c r="F42" s="104">
+      <c r="F42" s="103">
         <v>45960</v>
       </c>
-      <c r="G42" s="104">
+      <c r="G42" s="103">
         <v>45960</v>
       </c>
-      <c r="H42" s="95">
+      <c r="H42" s="94">
         <f>SUM(H43:H45)</f>
         <v>80</v>
       </c>
-      <c r="I42" s="86">
+      <c r="I42" s="85">
         <f>SUM(I43:I45)</f>
         <v>75000</v>
       </c>
-      <c r="J42" s="80">
+      <c r="J42" s="79">
         <f t="shared" si="1"/>
         <v>6000000</v>
       </c>
-      <c r="K42" s="108">
+      <c r="K42" s="107">
         <f>SUM(K43:K45)</f>
         <v>0</v>
       </c>
-      <c r="L42" s="108"/>
-      <c r="M42" s="86">
+      <c r="L42" s="107"/>
+      <c r="M42" s="85">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="N42" s="86">
+      <c r="N42" s="85">
         <v>400000</v>
       </c>
-      <c r="O42" s="86">
+      <c r="O42" s="85">
         <v>60000</v>
       </c>
-      <c r="P42" s="86">
+      <c r="P42" s="85">
         <f>SUM(M42:O42,J42)</f>
         <v>6460000</v>
       </c>
-      <c r="Q42" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q42" s="79">
+        <f t="shared" si="4"/>
         <v>6460000</v>
       </c>
-      <c r="R42" s="120">
+      <c r="R42" s="118">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -4961,36 +4930,36 @@
       <c r="AM42" s="1"/>
       <c r="AN42" s="1"/>
     </row>
-    <row r="43" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="58" t="s">
         <v>71</v>
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E43" s="67">
         <v>45949</v>
       </c>
-      <c r="F43" s="132">
+      <c r="F43" s="123">
         <v>45957</v>
       </c>
-      <c r="G43" s="132">
+      <c r="G43" s="123">
         <v>45957</v>
       </c>
       <c r="H43" s="70">
         <v>30</v>
       </c>
-      <c r="I43" s="88">
+      <c r="I43" s="87">
         <v>25000</v>
       </c>
-      <c r="J43" s="80">
+      <c r="J43" s="79">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="K43" s="33"/>
-      <c r="L43" s="88"/>
+      <c r="L43" s="87"/>
       <c r="M43" s="53">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -5001,12 +4970,12 @@
       <c r="O43" s="54">
         <v>60000</v>
       </c>
-      <c r="P43" s="123">
+      <c r="P43" s="121">
         <f>SUM(L43:O43,J43)</f>
         <v>860000</v>
       </c>
-      <c r="Q43" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q43" s="79">
+        <f t="shared" si="4"/>
         <v>860000</v>
       </c>
       <c r="R43" s="55">
@@ -5036,36 +5005,36 @@
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
     </row>
-    <row r="44" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="58" t="s">
         <v>72</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E44" s="67">
         <v>45952</v>
       </c>
-      <c r="F44" s="132">
+      <c r="F44" s="123">
         <v>45959</v>
       </c>
-      <c r="G44" s="132">
+      <c r="G44" s="123">
         <v>45959</v>
       </c>
       <c r="H44" s="70">
         <v>30</v>
       </c>
-      <c r="I44" s="88">
+      <c r="I44" s="87">
         <v>25000</v>
       </c>
-      <c r="J44" s="80">
+      <c r="J44" s="79">
         <f t="shared" si="1"/>
         <v>750000</v>
       </c>
       <c r="K44" s="33"/>
-      <c r="L44" s="88"/>
+      <c r="L44" s="87"/>
       <c r="M44" s="53">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -5074,12 +5043,12 @@
         <v>200000</v>
       </c>
       <c r="O44" s="54"/>
-      <c r="P44" s="123">
+      <c r="P44" s="121">
         <f t="shared" ref="P44:P45" si="16">SUM(L44:O44,J44)</f>
         <v>950000</v>
       </c>
-      <c r="Q44" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q44" s="79">
+        <f t="shared" si="4"/>
         <v>950000</v>
       </c>
       <c r="R44" s="55">
@@ -5109,36 +5078,36 @@
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
     </row>
-    <row r="45" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="58" t="s">
         <v>73</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E45" s="67">
         <v>45954</v>
       </c>
-      <c r="F45" s="132">
+      <c r="F45" s="123">
         <v>45960</v>
       </c>
-      <c r="G45" s="132">
+      <c r="G45" s="123">
         <v>45960</v>
       </c>
       <c r="H45" s="70">
         <v>20</v>
       </c>
-      <c r="I45" s="88">
+      <c r="I45" s="87">
         <v>25000</v>
       </c>
-      <c r="J45" s="80">
+      <c r="J45" s="79">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K45" s="33"/>
-      <c r="L45" s="88"/>
+      <c r="L45" s="87"/>
       <c r="M45" s="53">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -5147,12 +5116,12 @@
         <v>150000</v>
       </c>
       <c r="O45" s="54"/>
-      <c r="P45" s="123">
+      <c r="P45" s="121">
         <f t="shared" si="16"/>
         <v>650000</v>
       </c>
-      <c r="Q45" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q45" s="79">
+        <f t="shared" si="4"/>
         <v>650000</v>
       </c>
       <c r="R45" s="55">
@@ -5182,60 +5151,59 @@
       <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
     </row>
-    <row r="46" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="65" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="65"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="105">
+      <c r="E46" s="104">
         <v>45955</v>
       </c>
-      <c r="F46" s="105">
+      <c r="F46" s="104">
         <v>45964</v>
       </c>
-      <c r="G46" s="105">
+      <c r="G46" s="104">
         <v>45964</v>
       </c>
-      <c r="H46" s="96">
+      <c r="H46" s="95">
         <f>SUM(H47:H49)</f>
         <v>50</v>
       </c>
-      <c r="I46" s="87">
+      <c r="I46" s="86">
         <f>SUM(I47:I49)</f>
         <v>75000</v>
       </c>
-      <c r="J46" s="80">
+      <c r="J46" s="79">
         <f t="shared" si="1"/>
         <v>3750000</v>
       </c>
-      <c r="K46" s="107">
+      <c r="K46" s="106">
         <f>SUM(K47:K49)</f>
         <v>1</v>
       </c>
-      <c r="L46" s="107"/>
-      <c r="M46" s="87">
+      <c r="L46" s="106"/>
+      <c r="M46" s="86">
         <f>SUM(M47:M49)</f>
         <v>150000</v>
       </c>
-      <c r="N46" s="87">
+      <c r="N46" s="86">
         <v>800000</v>
       </c>
-      <c r="O46" s="87">
+      <c r="O46" s="86">
         <v>100000</v>
       </c>
-      <c r="P46" s="87">
+      <c r="P46" s="86">
         <f>SUM(L46:O46,J46)</f>
         <v>4800000</v>
       </c>
-      <c r="Q46" s="80">
-        <f t="shared" si="3"/>
-        <v>4800000</v>
-      </c>
-      <c r="R46" s="121">
+      <c r="Q46" s="79">
+        <v>3500000</v>
+      </c>
+      <c r="R46" s="119">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-1300000</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
@@ -5260,36 +5228,36 @@
       <c r="AM46" s="1"/>
       <c r="AN46" s="1"/>
     </row>
-    <row r="47" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="58" t="s">
         <v>75</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E47" s="67">
         <v>45955</v>
       </c>
-      <c r="F47" s="132">
+      <c r="F47" s="123">
         <v>45961</v>
       </c>
-      <c r="G47" s="132">
+      <c r="G47" s="123">
         <v>45961</v>
       </c>
       <c r="H47" s="70">
         <v>20</v>
       </c>
-      <c r="I47" s="88">
+      <c r="I47" s="87">
         <v>25000</v>
       </c>
-      <c r="J47" s="80">
+      <c r="J47" s="79">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K47" s="33"/>
-      <c r="L47" s="88"/>
+      <c r="L47" s="87"/>
       <c r="M47" s="53">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -5298,12 +5266,12 @@
         <v>200000</v>
       </c>
       <c r="O47" s="54"/>
-      <c r="P47" s="123">
+      <c r="P47" s="121">
         <f>SUM(L47:O47,J47)</f>
         <v>700000</v>
       </c>
-      <c r="Q47" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q47" s="79">
+        <f t="shared" si="4"/>
         <v>700000</v>
       </c>
       <c r="R47" s="55">
@@ -5333,38 +5301,38 @@
       <c r="AM47" s="1"/>
       <c r="AN47" s="1"/>
     </row>
-    <row r="48" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="58" t="s">
         <v>76</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E48" s="67">
         <v>45957</v>
       </c>
-      <c r="F48" s="132">
+      <c r="F48" s="123">
         <v>45963</v>
       </c>
-      <c r="G48" s="132">
+      <c r="G48" s="123">
         <v>45963</v>
       </c>
       <c r="H48" s="70">
         <v>20</v>
       </c>
-      <c r="I48" s="88">
+      <c r="I48" s="87">
         <v>25000</v>
       </c>
-      <c r="J48" s="80">
+      <c r="J48" s="79">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
       <c r="K48" s="33">
         <v>1</v>
       </c>
-      <c r="L48" s="88">
+      <c r="L48" s="87">
         <v>150000</v>
       </c>
       <c r="M48" s="53">
@@ -5375,12 +5343,12 @@
         <v>500000</v>
       </c>
       <c r="O48" s="54"/>
-      <c r="P48" s="123">
+      <c r="P48" s="121">
         <f t="shared" ref="P48:P49" si="17">SUM(L48:O48,J48)</f>
         <v>1300000</v>
       </c>
-      <c r="Q48" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q48" s="79">
+        <f t="shared" si="4"/>
         <v>1150000</v>
       </c>
       <c r="R48" s="55">
@@ -5410,36 +5378,36 @@
       <c r="AM48" s="1"/>
       <c r="AN48" s="1"/>
     </row>
-    <row r="49" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="58" t="s">
         <v>77</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E49" s="67">
         <v>45959</v>
       </c>
-      <c r="F49" s="132">
+      <c r="F49" s="123">
         <v>45964</v>
       </c>
-      <c r="G49" s="132">
+      <c r="G49" s="123">
         <v>45964</v>
       </c>
       <c r="H49" s="70">
         <v>10</v>
       </c>
-      <c r="I49" s="88">
+      <c r="I49" s="87">
         <v>25000</v>
       </c>
-      <c r="J49" s="80">
+      <c r="J49" s="79">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="K49" s="33"/>
-      <c r="L49" s="88"/>
+      <c r="L49" s="87"/>
       <c r="M49" s="53">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -5450,12 +5418,12 @@
       <c r="O49" s="54">
         <v>100000</v>
       </c>
-      <c r="P49" s="123">
+      <c r="P49" s="121">
         <f t="shared" si="17"/>
         <v>450000</v>
       </c>
-      <c r="Q49" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q49" s="79">
+        <f t="shared" si="4"/>
         <v>450000</v>
       </c>
       <c r="R49" s="55">
@@ -5485,7 +5453,7 @@
       <c r="AM49" s="1"/>
       <c r="AN49" s="1"/>
     </row>
-    <row r="50" spans="1:40" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="71" t="s">
         <v>78</v>
@@ -5495,50 +5463,49 @@
       <c r="E50" s="73">
         <v>45961</v>
       </c>
-      <c r="F50" s="136">
+      <c r="F50" s="127">
         <v>45967</v>
       </c>
-      <c r="G50" s="136">
+      <c r="G50" s="127">
         <v>45967</v>
       </c>
-      <c r="H50" s="74">
+      <c r="H50" s="135">
         <f>SUM(H51:H53)</f>
         <v>30</v>
       </c>
-      <c r="I50" s="113">
+      <c r="I50" s="136">
         <f>SUM(I51:I53)</f>
         <v>75000</v>
       </c>
-      <c r="J50" s="80">
+      <c r="J50" s="79">
         <f t="shared" si="1"/>
         <v>2250000</v>
       </c>
-      <c r="K50" s="76">
+      <c r="K50" s="75">
         <f>SUM(K51:K53)</f>
         <v>1</v>
       </c>
-      <c r="L50" s="76"/>
-      <c r="M50" s="75">
+      <c r="L50" s="75"/>
+      <c r="M50" s="74">
         <f>SUM(M51:M53)</f>
         <v>100000</v>
       </c>
-      <c r="N50" s="77">
+      <c r="N50" s="76">
         <v>200000</v>
       </c>
-      <c r="O50" s="78">
+      <c r="O50" s="77">
         <v>100000</v>
       </c>
-      <c r="P50" s="124">
+      <c r="P50" s="122">
         <f>SUM(L50:O50,J50)</f>
         <v>2650000</v>
       </c>
-      <c r="Q50" s="80">
-        <f t="shared" si="3"/>
-        <v>2650000</v>
-      </c>
-      <c r="R50" s="79">
+      <c r="Q50" s="79">
+        <v>2350000</v>
+      </c>
+      <c r="R50" s="78">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-300000</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
@@ -5563,36 +5530,36 @@
       <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
     </row>
-    <row r="51" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="58" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E51" s="67">
         <v>45961</v>
       </c>
-      <c r="F51" s="132">
+      <c r="F51" s="123">
         <v>45965</v>
       </c>
-      <c r="G51" s="132">
+      <c r="G51" s="123">
         <v>45965</v>
       </c>
       <c r="H51" s="70">
         <v>10</v>
       </c>
-      <c r="I51" s="88">
+      <c r="I51" s="87">
         <v>25000</v>
       </c>
-      <c r="J51" s="80">
+      <c r="J51" s="79">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="K51" s="33"/>
-      <c r="L51" s="88"/>
+      <c r="L51" s="87"/>
       <c r="M51" s="53">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -5603,12 +5570,12 @@
       <c r="O51" s="54">
         <v>50000</v>
       </c>
-      <c r="P51" s="123">
+      <c r="P51" s="121">
         <f>SUM(L51:O51,J51)</f>
         <v>350000</v>
       </c>
-      <c r="Q51" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q51" s="79">
+        <f t="shared" si="4"/>
         <v>350000</v>
       </c>
       <c r="R51" s="55">
@@ -5638,38 +5605,38 @@
       <c r="AM51" s="1"/>
       <c r="AN51" s="1"/>
     </row>
-    <row r="52" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="58" t="s">
         <v>80</v>
       </c>
       <c r="C52" s="28"/>
       <c r="D52" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E52" s="67">
         <v>45963</v>
       </c>
-      <c r="F52" s="132">
+      <c r="F52" s="123">
         <v>45966</v>
       </c>
-      <c r="G52" s="132">
+      <c r="G52" s="123">
         <v>45966</v>
       </c>
       <c r="H52" s="70">
         <v>10</v>
       </c>
-      <c r="I52" s="88">
+      <c r="I52" s="87">
         <v>25000</v>
       </c>
-      <c r="J52" s="80">
+      <c r="J52" s="79">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="K52" s="33">
         <v>1</v>
       </c>
-      <c r="L52" s="88">
+      <c r="L52" s="87">
         <v>100000</v>
       </c>
       <c r="M52" s="53">
@@ -5682,12 +5649,12 @@
       <c r="O52" s="54">
         <v>50000</v>
       </c>
-      <c r="P52" s="123">
+      <c r="P52" s="121">
         <f t="shared" ref="P52:P53" si="18">SUM(L52:O52,J52)</f>
         <v>550000</v>
       </c>
-      <c r="Q52" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q52" s="79">
+        <f t="shared" si="4"/>
         <v>450000</v>
       </c>
       <c r="R52" s="55">
@@ -5717,36 +5684,36 @@
       <c r="AM52" s="1"/>
       <c r="AN52" s="1"/>
     </row>
-    <row r="53" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="58" t="s">
         <v>81</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53" s="67">
         <v>45965</v>
       </c>
-      <c r="F53" s="132">
+      <c r="F53" s="123">
         <v>45967</v>
       </c>
-      <c r="G53" s="132">
+      <c r="G53" s="123">
         <v>45967</v>
       </c>
       <c r="H53" s="70">
         <v>10</v>
       </c>
-      <c r="I53" s="88">
+      <c r="I53" s="87">
         <v>25000</v>
       </c>
-      <c r="J53" s="80">
+      <c r="J53" s="79">
         <f t="shared" si="1"/>
         <v>250000</v>
       </c>
       <c r="K53" s="33"/>
-      <c r="L53" s="88"/>
+      <c r="L53" s="87"/>
       <c r="M53" s="53">
         <f t="shared" si="13"/>
         <v>0</v>
@@ -5755,12 +5722,12 @@
         <v>100000</v>
       </c>
       <c r="O53" s="54"/>
-      <c r="P53" s="123">
+      <c r="P53" s="121">
         <f t="shared" si="18"/>
         <v>350000</v>
       </c>
-      <c r="Q53" s="80">
-        <f t="shared" si="3"/>
+      <c r="Q53" s="79">
+        <f t="shared" si="4"/>
         <v>350000</v>
       </c>
       <c r="R53" s="55">
@@ -5774,21 +5741,21 @@
       <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
     </row>
-    <row r="54" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="29"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="97"/>
+      <c r="E54" s="105"/>
+      <c r="F54" s="96"/>
       <c r="G54" s="45"/>
       <c r="H54" s="37"/>
       <c r="I54" s="30"/>
       <c r="J54" s="32">
         <f>J5+J11+J21+J31+J35+J38+J42+J46+J50</f>
-        <v>143510000</v>
+        <v>123890000</v>
       </c>
       <c r="K54" s="32"/>
       <c r="L54" s="32"/>
@@ -5806,63 +5773,15 @@
       </c>
       <c r="P54" s="42">
         <f>P50+P46+P42+P38+P35+P31+P21+P11+P5</f>
-        <v>151000000</v>
+        <v>131380000</v>
       </c>
       <c r="Q54" s="39">
-        <f>SUM(J54:O54)</f>
-        <v>151000000</v>
-      </c>
-      <c r="R54" s="39" cm="1">
-        <f t="array" ref="R54:AH54">A54:Q54+'BLANK - Simple Project Budget'!C76</f>
-        <v>0</v>
-      </c>
-      <c r="S54" s="2" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="T54" s="2">
-        <v>0</v>
-      </c>
-      <c r="U54" s="2">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2">
-        <v>0</v>
-      </c>
-      <c r="X54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="2">
-        <v>143510000</v>
-      </c>
-      <c r="AB54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="AE54" s="2">
-        <v>5350000</v>
-      </c>
-      <c r="AF54" s="2">
-        <v>940000</v>
-      </c>
-      <c r="AG54" s="2">
-        <v>151000000</v>
-      </c>
-      <c r="AH54" s="2">
-        <v>151000000</v>
+        <f>SUM(Q50,Q42,Q46,Q38,Q35,Q31,Q21,Q11,Q5)</f>
+        <v>113895000</v>
+      </c>
+      <c r="R54" s="39">
+        <f>P54-Q54</f>
+        <v>17485000</v>
       </c>
       <c r="AI54" s="1"/>
       <c r="AJ54" s="1"/>
@@ -14185,7 +14104,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R47:R53 R12:R20 R22:R30 R32:R34 R36:R37 R39:R41 R43:R45 R6:R10">
+  <conditionalFormatting sqref="R47:R53 R6:R10 R12:R20 R22:R30 R32:R34 R36:R37 R39:R41 R43:R45">
     <cfRule type="cellIs" dxfId="13" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -14241,17 +14160,17 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="5"/>
-    <col min="3" max="3" width="3.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="3.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.875" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="5"/>
+    <col min="3" max="3" width="3.3984375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="3.3984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.8984375" customWidth="1"/>
+    <col min="7" max="7" width="3.3984375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="5" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="5" customFormat="1" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="24" t="s">
         <v>16</v>
       </c>
@@ -14280,7 +14199,7 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
-    <row r="2" spans="1:33" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="23" t="s">
         <v>15</v>
@@ -14295,7 +14214,7 @@
       </c>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="22" t="s">
         <v>13</v>
@@ -14310,7 +14229,7 @@
       </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="20" t="s">
         <v>11</v>
@@ -14325,7 +14244,7 @@
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="18" t="s">
@@ -14357,7 +14276,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="C8" s="4"/>
       <c r="E8" s="4"/>
@@ -14366,7 +14285,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -14394,7 +14313,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -14403,7 +14322,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -14412,7 +14331,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -14421,7 +14340,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -14430,7 +14349,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:33" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -14439,7 +14358,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -14447,7 +14366,7 @@
       <c r="E17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -14455,7 +14374,7 @@
       <c r="E18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -14463,7 +14382,7 @@
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -14471,7 +14390,7 @@
       <c r="E20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -14479,7 +14398,7 @@
       <c r="E21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -14487,7 +14406,7 @@
       <c r="E22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -14495,7 +14414,7 @@
       <c r="E23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -14503,7 +14422,7 @@
       <c r="E24" s="4"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -14511,7 +14430,7 @@
       <c r="E25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -14519,7 +14438,7 @@
       <c r="E26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -14527,7 +14446,7 @@
       <c r="E27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -14535,7 +14454,7 @@
       <c r="E28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -14543,7 +14462,7 @@
       <c r="E29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -14551,7 +14470,7 @@
       <c r="E30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -14559,7 +14478,7 @@
       <c r="E31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
@@ -14567,203 +14486,203 @@
       <c r="E32"/>
       <c r="G32"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="E33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="E34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="E35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="E36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="E37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="E38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="E39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="E40" s="4"/>
       <c r="G40" s="4"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="E41" s="4"/>
       <c r="G41" s="4"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="E42" s="4"/>
       <c r="G42" s="4"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="E43" s="4"/>
       <c r="G43" s="4"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="E44" s="4"/>
       <c r="G44" s="4"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="E45" s="4"/>
       <c r="G45" s="4"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="E46" s="4"/>
       <c r="G46" s="4"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="E47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="E48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="E49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="E50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
       <c r="E51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
       <c r="E52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="E53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="E54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="E55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="E56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="E57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
       <c r="E58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="E59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
       <c r="E60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
